--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B35303-1952-494A-8EB0-FFECDE4CE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDB6A2-C6FB-4562-BB7F-A07B8336DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="552">
   <si>
     <t>model_number</t>
   </si>
@@ -2232,11 +2232,32 @@
   <si>
     <t xml:space="preserve">Wiremold Overfloor Cord Protector (15 Pack) White Final Lid </t>
   </si>
+  <si>
+    <t>CABLE CLIP NAIL IN TC3X5-6X10.pdf</t>
+  </si>
+  <si>
+    <t>SPIRAL CABLE WRAP (ALL VARIATIONS).pdf</t>
+  </si>
+  <si>
+    <t>Canal TMK 0812 EN.pdf</t>
+  </si>
+  <si>
+    <t>Canal TMK 1020 EN.pdf</t>
+  </si>
+  <si>
+    <t>Canal TMK 1720 EN.pdf</t>
+  </si>
+  <si>
+    <t>Canal TMK 1735 EN.pdf</t>
+  </si>
+  <si>
+    <t>SOFT OVERFLOOR CORD PROTECTOR.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3074,16 +3095,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B90" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9374,7 +9397,7 @@
         <v>223</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J63">
         <v>10.23</v>
@@ -9475,7 +9498,7 @@
         <v>223</v>
       </c>
       <c r="I64" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J64">
         <v>5.0999999999999996</v>
@@ -9576,7 +9599,7 @@
         <v>259</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J65">
         <v>5.0199999999999996</v>
@@ -9677,7 +9700,7 @@
         <v>263</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J66">
         <v>8.3699999999999992</v>
@@ -9778,7 +9801,7 @@
         <v>259</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J67">
         <v>5.0999999999999996</v>
@@ -9879,7 +9902,7 @@
         <v>270</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J68">
         <v>11.52</v>
@@ -9980,7 +10003,7 @@
         <v>270</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J69">
         <v>5.44</v>
@@ -10081,7 +10104,7 @@
         <v>270</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J70">
         <v>3.22</v>
@@ -10182,7 +10205,7 @@
         <v>279</v>
       </c>
       <c r="I71" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J71">
         <v>11.52</v>
@@ -10283,7 +10306,7 @@
         <v>279</v>
       </c>
       <c r="I72" t="s">
-        <v>118</v>
+        <v>545</v>
       </c>
       <c r="J72">
         <v>6.78</v>
@@ -10384,7 +10407,7 @@
         <v>286</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -10485,7 +10508,7 @@
         <v>286</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="J74">
         <v>15.86</v>
@@ -10990,7 +11013,7 @@
         <v>314</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J79">
         <v>4.13</v>
@@ -11091,7 +11114,7 @@
         <v>319</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J80">
         <v>23.71</v>
@@ -11192,7 +11215,7 @@
         <v>324</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J81">
         <v>124.67</v>
@@ -11293,7 +11316,7 @@
         <v>314</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J82">
         <v>3.37</v>
@@ -11394,7 +11417,7 @@
         <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J83">
         <v>3.37</v>
@@ -11495,7 +11518,7 @@
         <v>314</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J84">
         <v>4.13</v>
@@ -11596,7 +11619,7 @@
         <v>319</v>
       </c>
       <c r="I85" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J85">
         <v>4.13</v>
@@ -11697,7 +11720,7 @@
         <v>324</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J86">
         <v>23.71</v>
@@ -11798,7 +11821,7 @@
         <v>309</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J87">
         <v>36.81</v>
@@ -11899,7 +11922,7 @@
         <v>314</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J88">
         <v>4.12</v>
@@ -12000,7 +12023,7 @@
         <v>319</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J89">
         <v>4.13</v>
@@ -12101,7 +12124,7 @@
         <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J90">
         <v>23.71</v>
@@ -12202,7 +12225,7 @@
         <v>314</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J91">
         <v>3.06</v>
@@ -12303,7 +12326,7 @@
         <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J92">
         <v>3.37</v>
@@ -12404,7 +12427,7 @@
         <v>314</v>
       </c>
       <c r="I93" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J93">
         <v>4.12</v>
@@ -12505,7 +12528,7 @@
         <v>319</v>
       </c>
       <c r="I94" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J94">
         <v>4.13</v>
@@ -12606,7 +12629,7 @@
         <v>324</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J95">
         <v>23.71</v>
@@ -12707,7 +12730,7 @@
         <v>309</v>
       </c>
       <c r="I96" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J96">
         <v>3.37</v>
@@ -12808,7 +12831,7 @@
         <v>358</v>
       </c>
       <c r="I97" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J97">
         <v>4.12</v>
@@ -12909,7 +12932,7 @@
         <v>319</v>
       </c>
       <c r="I98" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J98">
         <v>4.13</v>
@@ -13010,7 +13033,7 @@
         <v>324</v>
       </c>
       <c r="I99" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="J99">
         <v>23.71</v>
@@ -13212,7 +13235,7 @@
         <v>368</v>
       </c>
       <c r="I101" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J101">
         <v>3.87</v>
@@ -13313,7 +13336,7 @@
         <v>368</v>
       </c>
       <c r="I102" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J102">
         <v>10.76</v>
@@ -13414,7 +13437,7 @@
         <v>368</v>
       </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J103">
         <v>7.08</v>
@@ -13515,7 +13538,7 @@
         <v>368</v>
       </c>
       <c r="I104" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J104">
         <v>6.82</v>
@@ -13616,7 +13639,7 @@
         <v>380</v>
       </c>
       <c r="I105" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J105">
         <v>0.77</v>
@@ -13717,7 +13740,7 @@
         <v>380</v>
       </c>
       <c r="I106" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J106">
         <v>0.77</v>
@@ -13818,7 +13841,7 @@
         <v>380</v>
       </c>
       <c r="I107" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J107">
         <v>0.77</v>
@@ -13919,7 +13942,7 @@
         <v>380</v>
       </c>
       <c r="I108" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J108">
         <v>0.77</v>
@@ -14020,7 +14043,7 @@
         <v>380</v>
       </c>
       <c r="I109" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J109">
         <v>0.81</v>
@@ -14121,7 +14144,7 @@
         <v>380</v>
       </c>
       <c r="I110" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J110">
         <v>0.81</v>
@@ -14222,7 +14245,7 @@
         <v>398</v>
       </c>
       <c r="I111" t="s">
-        <v>118</v>
+        <v>547</v>
       </c>
       <c r="J111">
         <v>2.92</v>
@@ -14323,7 +14346,7 @@
         <v>402</v>
       </c>
       <c r="I112" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J112">
         <v>9.7100000000000009</v>
@@ -14424,7 +14447,7 @@
         <v>406</v>
       </c>
       <c r="I113" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J113">
         <v>11.83</v>
@@ -14525,7 +14548,7 @@
         <v>406</v>
       </c>
       <c r="I114" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J114">
         <v>11.93</v>
@@ -14626,7 +14649,7 @@
         <v>402</v>
       </c>
       <c r="I115" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J115">
         <v>11.88</v>
@@ -14727,7 +14750,7 @@
         <v>413</v>
       </c>
       <c r="I116" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J116">
         <v>17.75</v>
@@ -14828,7 +14851,7 @@
         <v>416</v>
       </c>
       <c r="I117" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J117">
         <v>12.68</v>
@@ -14929,7 +14952,7 @@
         <v>419</v>
       </c>
       <c r="I118" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J118">
         <v>12.52</v>
@@ -15030,7 +15053,7 @@
         <v>419</v>
       </c>
       <c r="I119" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J119">
         <v>12.34</v>
@@ -15131,7 +15154,7 @@
         <v>425</v>
       </c>
       <c r="I120" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J120">
         <v>7.8</v>
@@ -15232,7 +15255,7 @@
         <v>425</v>
       </c>
       <c r="I121" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J121">
         <v>8.83</v>
@@ -15333,7 +15356,7 @@
         <v>431</v>
       </c>
       <c r="I122" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J122">
         <v>13.99</v>
@@ -15434,7 +15457,7 @@
         <v>431</v>
       </c>
       <c r="I123" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J123">
         <v>12.28</v>
@@ -15535,7 +15558,7 @@
         <v>431</v>
       </c>
       <c r="I124" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J124">
         <v>9.5399999999999991</v>
@@ -15636,7 +15659,7 @@
         <v>431</v>
       </c>
       <c r="I125" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="J125">
         <v>8.08</v>
@@ -15737,7 +15760,7 @@
         <v>441</v>
       </c>
       <c r="I126" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J126">
         <v>14.4</v>
@@ -15838,7 +15861,7 @@
         <v>441</v>
       </c>
       <c r="I127" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J127">
         <v>14.4</v>
@@ -15939,7 +15962,7 @@
         <v>441</v>
       </c>
       <c r="I128" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J128">
         <v>17.75</v>
@@ -16040,7 +16063,7 @@
         <v>441</v>
       </c>
       <c r="I129" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J129">
         <v>15.68</v>
@@ -16141,7 +16164,7 @@
         <v>451</v>
       </c>
       <c r="I130" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J130">
         <v>9.34</v>
@@ -16242,7 +16265,7 @@
         <v>451</v>
       </c>
       <c r="I131" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J131">
         <v>8.83</v>
@@ -16343,7 +16366,7 @@
         <v>451</v>
       </c>
       <c r="I132" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J132">
         <v>13.99</v>
@@ -16444,7 +16467,7 @@
         <v>451</v>
       </c>
       <c r="I133" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J133">
         <v>1.51</v>
@@ -16545,7 +16568,7 @@
         <v>451</v>
       </c>
       <c r="I134" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J134">
         <v>1.7</v>
@@ -16646,7 +16669,7 @@
         <v>451</v>
       </c>
       <c r="I135" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="J135">
         <v>1.69</v>
@@ -16747,7 +16770,7 @@
         <v>465</v>
       </c>
       <c r="I136" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J136">
         <v>22.87</v>
@@ -16848,7 +16871,7 @@
         <v>465</v>
       </c>
       <c r="I137" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J137">
         <v>22.87</v>
@@ -16949,7 +16972,7 @@
         <v>465</v>
       </c>
       <c r="I138" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J138">
         <v>22.87</v>
@@ -17050,7 +17073,7 @@
         <v>465</v>
       </c>
       <c r="I139" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J139">
         <v>22.87</v>
@@ -17151,7 +17174,7 @@
         <v>465</v>
       </c>
       <c r="I140" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J140">
         <v>26.9</v>
@@ -17252,7 +17275,7 @@
         <v>465</v>
       </c>
       <c r="I141" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J141">
         <v>26.9</v>
@@ -17353,7 +17376,7 @@
         <v>479</v>
       </c>
       <c r="I142" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J142">
         <v>1.76</v>
@@ -17454,7 +17477,7 @@
         <v>479</v>
       </c>
       <c r="I143" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J143">
         <v>1.72</v>
@@ -17555,7 +17578,7 @@
         <v>479</v>
       </c>
       <c r="I144" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J144">
         <v>1.72</v>
@@ -17656,7 +17679,7 @@
         <v>479</v>
       </c>
       <c r="I145" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J145">
         <v>1.72</v>
@@ -17757,7 +17780,7 @@
         <v>479</v>
       </c>
       <c r="I146" t="s">
-        <v>118</v>
+        <v>550</v>
       </c>
       <c r="J146">
         <v>1.73</v>
@@ -18969,7 +18992,7 @@
         <v>526</v>
       </c>
       <c r="I158" t="s">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="J158">
         <v>26.43</v>
@@ -19070,7 +19093,7 @@
         <v>526</v>
       </c>
       <c r="I159" t="s">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="J159">
         <v>26.43</v>
@@ -19171,7 +19194,7 @@
         <v>526</v>
       </c>
       <c r="I160" t="s">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="J160">
         <v>26.43</v>

--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FDB6A2-C6FB-4562-BB7F-A07B8336DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B7A790-547F-492F-A1D1-313B75D25697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3444,7 +3444,7 @@
         <v>5.47</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>492.3</v>
@@ -3646,7 +3646,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>687.24</v>
@@ -3747,7 +3747,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>422.1</v>
@@ -3949,7 +3949,7 @@
         <v>5.29</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>264.5</v>
@@ -4050,7 +4050,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>227.7</v>
@@ -4151,7 +4151,7 @@
         <v>5.41</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>270.5</v>
@@ -4252,7 +4252,7 @@
         <v>13.06</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>992.56</v>
@@ -4454,7 +4454,7 @@
         <v>5.51</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>275.5</v>
@@ -4555,7 +4555,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>410.4</v>
@@ -4757,7 +4757,7 @@
         <v>13.96</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>1005.12</v>
@@ -4858,7 +4858,7 @@
         <v>15.39</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>230.85</v>
@@ -5161,7 +5161,7 @@
         <v>5.86</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <v>87.9</v>
@@ -5262,7 +5262,7 @@
         <v>12.96</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <v>1788.48</v>
@@ -5363,7 +5363,7 @@
         <v>10.62</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>573.48</v>
@@ -8898,7 +8898,7 @@
         <v>5.15</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L58">
         <v>200.85</v>
@@ -13746,7 +13746,7 @@
         <v>0.77</v>
       </c>
       <c r="K106">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L106">
         <v>7.7</v>
@@ -16170,7 +16170,7 @@
         <v>9.34</v>
       </c>
       <c r="K130">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L130">
         <v>93.4</v>

--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBF0303-63F6-4C1B-A9B1-C5F1CD6B134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A1911-EC5B-4B06-B7D0-651A1F7BA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="513">
   <si>
     <t>model_number</t>
   </si>
@@ -2015,9 +2015,6 @@
   </si>
   <si>
     <t>Raceway 3.6' (10 Pack)</t>
-  </si>
-  <si>
-    <t>Raceway 3.6' with Adhesive</t>
   </si>
   <si>
     <t>Raceway Transparent Lid 8.2' (25 Pack)</t>
@@ -2984,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14416,7 +14413,7 @@
         <v>7501509900196</v>
       </c>
       <c r="C114" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D114" t="s">
         <v>97</v>
@@ -14719,7 +14716,7 @@
         <v>7506218111673</v>
       </c>
       <c r="C117" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D117" t="s">
         <v>97</v>
@@ -14820,7 +14817,7 @@
         <v>7501509900141</v>
       </c>
       <c r="C118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D118" t="s">
         <v>97</v>
@@ -14921,7 +14918,7 @@
         <v>7501509900165</v>
       </c>
       <c r="C119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
@@ -15022,7 +15019,7 @@
         <v>7501509900974</v>
       </c>
       <c r="C120" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D120" t="s">
         <v>97</v>
@@ -15123,7 +15120,7 @@
         <v>7501509900967</v>
       </c>
       <c r="C121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D121" t="s">
         <v>97</v>
@@ -15224,7 +15221,7 @@
         <v>7501509900981</v>
       </c>
       <c r="C122" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -15325,7 +15322,7 @@
         <v>7501509905245</v>
       </c>
       <c r="C123" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -15426,7 +15423,7 @@
         <v>7501509905221</v>
       </c>
       <c r="C124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -15527,7 +15524,7 @@
         <v>7501509900998</v>
       </c>
       <c r="C125" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -15628,7 +15625,7 @@
         <v>7501509901001</v>
       </c>
       <c r="C126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D126" t="s">
         <v>97</v>
@@ -15830,7 +15827,7 @@
         <v>7501509900202</v>
       </c>
       <c r="C128" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D128" t="s">
         <v>97</v>
@@ -15931,7 +15928,7 @@
         <v>7501509900189</v>
       </c>
       <c r="C129" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D129" t="s">
         <v>97</v>
@@ -16032,7 +16029,7 @@
         <v>7501509901025</v>
       </c>
       <c r="C130" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D130" t="s">
         <v>97</v>
@@ -16133,7 +16130,7 @@
         <v>7501509901018</v>
       </c>
       <c r="C131" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D131" t="s">
         <v>97</v>
@@ -16335,7 +16332,7 @@
         <v>7501509907362</v>
       </c>
       <c r="C133" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D133" t="s">
         <v>97</v>
@@ -16436,7 +16433,7 @@
         <v>7501509907379</v>
       </c>
       <c r="C134" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D134" t="s">
         <v>97</v>
@@ -16537,7 +16534,7 @@
         <v>7501509901049</v>
       </c>
       <c r="C135" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D135" t="s">
         <v>97</v>
@@ -16638,7 +16635,7 @@
         <v>7501509901056</v>
       </c>
       <c r="C136" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D136" t="s">
         <v>97</v>
@@ -16840,7 +16837,7 @@
         <v>7501509900219</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D138" t="s">
         <v>97</v>
@@ -16941,7 +16938,7 @@
         <v>7506218111666</v>
       </c>
       <c r="C139" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D139" t="s">
         <v>97</v>
@@ -17042,7 +17039,7 @@
         <v>7501509900233</v>
       </c>
       <c r="C140" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D140" t="s">
         <v>97</v>
@@ -17143,7 +17140,7 @@
         <v>7501509900240</v>
       </c>
       <c r="C141" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
         <v>97</v>
@@ -17244,7 +17241,7 @@
         <v>7501509901070</v>
       </c>
       <c r="C142" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D142" t="s">
         <v>97</v>
@@ -17345,7 +17342,7 @@
         <v>7501509901063</v>
       </c>
       <c r="C143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D143" t="s">
         <v>97</v>
@@ -17446,7 +17443,7 @@
         <v>7501509901087</v>
       </c>
       <c r="C144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D144" t="s">
         <v>97</v>
@@ -17547,7 +17544,7 @@
         <v>7501509907386</v>
       </c>
       <c r="C145" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D145" t="s">
         <v>97</v>
@@ -17648,7 +17645,7 @@
         <v>7501509907393</v>
       </c>
       <c r="C146" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D146" t="s">
         <v>97</v>
@@ -17749,7 +17746,7 @@
         <v>7501509901094</v>
       </c>
       <c r="C147" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D147" t="s">
         <v>97</v>
@@ -17850,7 +17847,7 @@
         <v>7506218112458</v>
       </c>
       <c r="C148" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D148" t="s">
         <v>97</v>
@@ -17951,7 +17948,7 @@
         <v>7506218112229</v>
       </c>
       <c r="C149" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D149" t="s">
         <v>97</v>
@@ -18052,7 +18049,7 @@
         <v>7506218112250</v>
       </c>
       <c r="C150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
         <v>97</v>
@@ -18153,7 +18150,7 @@
         <v>7501509906693</v>
       </c>
       <c r="C151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D151" t="s">
         <v>97</v>
@@ -18254,7 +18251,7 @@
         <v>7501509901780</v>
       </c>
       <c r="C152" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
         <v>97</v>
@@ -18355,7 +18352,7 @@
         <v>7506218110096</v>
       </c>
       <c r="C153" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D153" t="s">
         <v>97</v>
@@ -18456,7 +18453,7 @@
         <v>7506218110072</v>
       </c>
       <c r="C154" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D154" t="s">
         <v>97</v>
@@ -18557,7 +18554,7 @@
         <v>7501509901834</v>
       </c>
       <c r="C155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D155" t="s">
         <v>97</v>
@@ -18658,7 +18655,7 @@
         <v>7506218110102</v>
       </c>
       <c r="C156" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D156" t="s">
         <v>97</v>
@@ -18759,7 +18756,7 @@
         <v>7506218110089</v>
       </c>
       <c r="C157" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D157" t="s">
         <v>97</v>
@@ -18860,7 +18857,7 @@
         <v>7501509903234</v>
       </c>
       <c r="C158" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D158" t="s">
         <v>97</v>
@@ -18961,7 +18958,7 @@
         <v>7501509903258</v>
       </c>
       <c r="C159" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D159" t="s">
         <v>97</v>
@@ -19062,7 +19059,7 @@
         <v>7501509903241</v>
       </c>
       <c r="C160" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D160" t="s">
         <v>97</v>
@@ -19163,7 +19160,7 @@
         <v>7506218110201</v>
       </c>
       <c r="C161" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D161" t="s">
         <v>97</v>
@@ -19264,7 +19261,7 @@
         <v>7506218110256</v>
       </c>
       <c r="C162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
         <v>97</v>
@@ -19365,7 +19362,7 @@
         <v>7506218110126</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D163" t="s">
         <v>97</v>
@@ -19466,7 +19463,7 @@
         <v>7506218110119</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D164" t="s">
         <v>97</v>
@@ -19567,7 +19564,7 @@
         <v>7506218110133</v>
       </c>
       <c r="C165" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D165" t="s">
         <v>97</v>
@@ -19668,7 +19665,7 @@
         <v>7506218110140</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
         <v>97</v>

--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A1911-EC5B-4B06-B7D0-651A1F7BA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150FE0E7-52B8-4B7E-83B6-055C59A93C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,9 +1783,6 @@
     <t>Concrete Anchor 7/32" (100 Pack)</t>
   </si>
   <si>
-    <t>Concrete Anchor 7/32" &amp; Screws (20 Pack)</t>
-  </si>
-  <si>
     <t>Concrete Anchor 1/4" (20 Pack)</t>
   </si>
   <si>
@@ -1801,27 +1798,15 @@
     <t>Concrete Anchor 5/16" (100 Pack)</t>
   </si>
   <si>
-    <t>Concrete Anchor &amp; Screws 5/16" (10 Pack)</t>
-  </si>
-  <si>
-    <t>Concrete Anchor &amp; Screws 7/32" (20 Pack)</t>
-  </si>
-  <si>
     <t>Concrete Anchor 3/8" (20 Pack)</t>
   </si>
   <si>
-    <t>Concrete Anchor &amp; Screws 3/8" (6 Pack)</t>
-  </si>
-  <si>
     <t>Concrete Anchor 3/8" (100 Pack)</t>
   </si>
   <si>
     <t>Drwy Wall Anchor (20 Pack)</t>
   </si>
   <si>
-    <t>Dry Wall Anchor &amp; Nail 10x20 (100 Pack)</t>
-  </si>
-  <si>
     <t>Dry Wall Fixing Kit (40 Pack Kit)</t>
   </si>
   <si>
@@ -1837,9 +1822,6 @@
     <t>Self Drill Dry Wall Anchor (20 Pack)</t>
   </si>
   <si>
-    <t>Self Drill Dry Wall Anchor &amp; Screws (10pack)</t>
-  </si>
-  <si>
     <t>Dry wall Anchor (100 Pack)</t>
   </si>
   <si>
@@ -2135,6 +2117,24 @@
   </si>
   <si>
     <t>Floor Cord Cover Cable Black 8.2ft with Adhesive</t>
+  </si>
+  <si>
+    <t>Concrete Anchor 7/32" With Screws (20 Pack)</t>
+  </si>
+  <si>
+    <t>Concrete Anchor With Screws 7/32" (20 Pack)</t>
+  </si>
+  <si>
+    <t>Concrete Anchor With Screws 5/16" (10 Pack)</t>
+  </si>
+  <si>
+    <t>Concrete Anchor With Screws 3/8" (6 Pack)</t>
+  </si>
+  <si>
+    <t>Dry Wall Anchor With Nail 10x20 (100 Pack)</t>
+  </si>
+  <si>
+    <t>Self Drill Dry Wall Anchor With Screws (10pack)</t>
   </si>
 </sst>
 </file>
@@ -2981,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3303,7 @@
         <v>7501509906228</v>
       </c>
       <c r="C4" t="s">
-        <v>395</v>
+        <v>507</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -3606,7 +3606,7 @@
         <v>7501509906235</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -3707,7 +3707,7 @@
         <v>7501509901889</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -3808,7 +3808,7 @@
         <v>7501509900363</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -3909,7 +3909,7 @@
         <v>7501509906242</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
         <v>7501509900288</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -4111,7 +4111,7 @@
         <v>7501509901896</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -4212,7 +4212,7 @@
         <v>7501509906259</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -4313,7 +4313,7 @@
         <v>7501509900295</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -4414,7 +4414,7 @@
         <v>7501509906266</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -4515,7 +4515,7 @@
         <v>7501509901902</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -4616,7 +4616,7 @@
         <v>7501509901919</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -4717,7 +4717,7 @@
         <v>7501509907744</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -4818,7 +4818,7 @@
         <v>7501509900370</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -4919,7 +4919,7 @@
         <v>7501509901926</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -5020,7 +5020,7 @@
         <v>7501509907737</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -5121,7 +5121,7 @@
         <v>7501509900387</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -5222,7 +5222,7 @@
         <v>7501509905726</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -5323,7 +5323,7 @@
         <v>7501509905733</v>
       </c>
       <c r="C24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -5424,7 +5424,7 @@
         <v>7501509906556</v>
       </c>
       <c r="C25" t="s">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -5929,7 +5929,7 @@
         <v>7501509905955</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -6030,7 +6030,7 @@
         <v>7501509906013</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -6131,7 +6131,7 @@
         <v>7501509900899</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -6232,7 +6232,7 @@
         <v>7501509902060</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -6333,7 +6333,7 @@
         <v>7501509907751</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -6434,7 +6434,7 @@
         <v>7501509900905</v>
       </c>
       <c r="C35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -6535,7 +6535,7 @@
         <v>7501509902077</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
@@ -6636,7 +6636,7 @@
         <v>7501509907768</v>
       </c>
       <c r="C37" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -6737,7 +6737,7 @@
         <v>7501509902084</v>
       </c>
       <c r="C38" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
@@ -6838,7 +6838,7 @@
         <v>7501509907775</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -6939,7 +6939,7 @@
         <v>7501509903999</v>
       </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -7040,7 +7040,7 @@
         <v>7501509902091</v>
       </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
@@ -7141,7 +7141,7 @@
         <v>7501509907782</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -7242,7 +7242,7 @@
         <v>7501509902107</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
@@ -7343,7 +7343,7 @@
         <v>7501509907799</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
@@ -7444,7 +7444,7 @@
         <v>7501509901957</v>
       </c>
       <c r="C45" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -7545,7 +7545,7 @@
         <v>7501509908987</v>
       </c>
       <c r="C46" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -7646,7 +7646,7 @@
         <v>7501509908970</v>
       </c>
       <c r="C47" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -7747,7 +7747,7 @@
         <v>7501509901964</v>
       </c>
       <c r="C48" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
@@ -7848,7 +7848,7 @@
         <v>7506218110751</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
         <v>97</v>
@@ -7949,7 +7949,7 @@
         <v>7501509900394</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
@@ -8050,7 +8050,7 @@
         <v>7506218110805</v>
       </c>
       <c r="C51" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
@@ -8151,7 +8151,7 @@
         <v>7501509901971</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
@@ -8252,7 +8252,7 @@
         <v>7501509900400</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D53" t="s">
         <v>97</v>
@@ -8353,7 +8353,7 @@
         <v>7501509901988</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
@@ -8454,7 +8454,7 @@
         <v>7501509905313</v>
       </c>
       <c r="C55" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
@@ -8555,7 +8555,7 @@
         <v>7501509905771</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D56" t="s">
         <v>97</v>
@@ -8656,7 +8656,7 @@
         <v>7501509900417</v>
       </c>
       <c r="C57" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
@@ -8757,7 +8757,7 @@
         <v>7501509905641</v>
       </c>
       <c r="C58" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
@@ -8858,7 +8858,7 @@
         <v>7501509901995</v>
       </c>
       <c r="C59" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D59" t="s">
         <v>97</v>
@@ -8959,7 +8959,7 @@
         <v>7501509900844</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
@@ -9060,7 +9060,7 @@
         <v>7501509902008</v>
       </c>
       <c r="C61" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D61" t="s">
         <v>97</v>
@@ -9161,7 +9161,7 @@
         <v>7501509900127</v>
       </c>
       <c r="C62" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D62" t="s">
         <v>97</v>
@@ -9262,7 +9262,7 @@
         <v>7501509902022</v>
       </c>
       <c r="C63" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D63" t="s">
         <v>97</v>
@@ -9363,7 +9363,7 @@
         <v>7501509900851</v>
       </c>
       <c r="C64" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
@@ -9464,7 +9464,7 @@
         <v>7501509902039</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D65" t="s">
         <v>97</v>
@@ -9565,7 +9565,7 @@
         <v>7501509900301</v>
       </c>
       <c r="C66" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D66" t="s">
         <v>97</v>
@@ -9666,7 +9666,7 @@
         <v>7501509900868</v>
       </c>
       <c r="C67" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D67" t="s">
         <v>97</v>
@@ -9767,7 +9767,7 @@
         <v>7501509902046</v>
       </c>
       <c r="C68" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D68" t="s">
         <v>97</v>
@@ -9868,7 +9868,7 @@
         <v>7501509900356</v>
       </c>
       <c r="C69" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D69" t="s">
         <v>97</v>
@@ -9969,7 +9969,7 @@
         <v>7501509900875</v>
       </c>
       <c r="C70" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -10070,7 +10070,7 @@
         <v>7501509902053</v>
       </c>
       <c r="C71" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D71" t="s">
         <v>97</v>
@@ -10171,7 +10171,7 @@
         <v>7501509900882</v>
       </c>
       <c r="C72" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D72" t="s">
         <v>97</v>
@@ -10272,7 +10272,7 @@
         <v>7501509905795</v>
       </c>
       <c r="C73" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D73" t="s">
         <v>97</v>
@@ -10373,7 +10373,7 @@
         <v>7501509905788</v>
       </c>
       <c r="C74" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D74" t="s">
         <v>97</v>
@@ -10474,7 +10474,7 @@
         <v>7501509907058</v>
       </c>
       <c r="C75" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D75" t="s">
         <v>97</v>
@@ -10575,7 +10575,7 @@
         <v>7506218113011</v>
       </c>
       <c r="C76" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
@@ -10676,7 +10676,7 @@
         <v>7506218113035</v>
       </c>
       <c r="C77" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D77" t="s">
         <v>34</v>
@@ -10777,7 +10777,7 @@
         <v>7501509907720</v>
       </c>
       <c r="C78" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
@@ -10878,7 +10878,7 @@
         <v>7501509908550</v>
       </c>
       <c r="C79" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D79" t="s">
         <v>97</v>
@@ -10979,7 +10979,7 @@
         <v>7501509908574</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
@@ -11080,7 +11080,7 @@
         <v>7501509908598</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -11181,7 +11181,7 @@
         <v>7506218111604</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D82" t="s">
         <v>97</v>
@@ -11282,7 +11282,7 @@
         <v>7501509909083</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -11383,7 +11383,7 @@
         <v>7501509909120</v>
       </c>
       <c r="C84" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D84" t="s">
         <v>97</v>
@@ -11484,7 +11484,7 @@
         <v>7501509909168</v>
       </c>
       <c r="C85" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
         <v>97</v>
@@ -11585,7 +11585,7 @@
         <v>7501509909205</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D86" t="s">
         <v>97</v>
@@ -11686,7 +11686,7 @@
         <v>7501509907966</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D87" t="s">
         <v>97</v>
@@ -11787,7 +11787,7 @@
         <v>7501509908567</v>
       </c>
       <c r="C88" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
@@ -11888,7 +11888,7 @@
         <v>7501509908581</v>
       </c>
       <c r="C89" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -11989,7 +11989,7 @@
         <v>7501509908604</v>
       </c>
       <c r="C90" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
@@ -12090,7 +12090,7 @@
         <v>7506218111611</v>
       </c>
       <c r="C91" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D91" t="s">
         <v>97</v>
@@ -12191,7 +12191,7 @@
         <v>7501509909809</v>
       </c>
       <c r="C92" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -12292,7 +12292,7 @@
         <v>7501509909816</v>
       </c>
       <c r="C93" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -12393,7 +12393,7 @@
         <v>7501509909823</v>
       </c>
       <c r="C94" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -12494,7 +12494,7 @@
         <v>7501509908246</v>
       </c>
       <c r="C95" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -12595,7 +12595,7 @@
         <v>7501509909267</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -12696,7 +12696,7 @@
         <v>7501509909274</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
@@ -12797,7 +12797,7 @@
         <v>7501509909281</v>
       </c>
       <c r="C98" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
@@ -12898,7 +12898,7 @@
         <v>7501509909786</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
@@ -12999,7 +12999,7 @@
         <v>7501509900134</v>
       </c>
       <c r="C100" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D100" t="s">
         <v>97</v>
@@ -13100,7 +13100,7 @@
         <v>7501509906174</v>
       </c>
       <c r="C101" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D101" t="s">
         <v>97</v>
@@ -13201,7 +13201,7 @@
         <v>7501509906150</v>
       </c>
       <c r="C102" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D102" t="s">
         <v>97</v>
@@ -13302,7 +13302,7 @@
         <v>7501509907140</v>
       </c>
       <c r="C103" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
         <v>97</v>
@@ -13403,7 +13403,7 @@
         <v>7506218110485</v>
       </c>
       <c r="C104" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D104" t="s">
         <v>97</v>
@@ -13504,7 +13504,7 @@
         <v>7506218110706</v>
       </c>
       <c r="C105" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
         <v>97</v>
@@ -13605,7 +13605,7 @@
         <v>7506218110683</v>
       </c>
       <c r="C106" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D106" t="s">
         <v>97</v>
@@ -13706,7 +13706,7 @@
         <v>7506218110416</v>
       </c>
       <c r="C107" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D107" t="s">
         <v>97</v>
@@ -13807,7 +13807,7 @@
         <v>7506218110409</v>
       </c>
       <c r="C108" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D108" t="s">
         <v>97</v>
@@ -13908,7 +13908,7 @@
         <v>7506218110430</v>
       </c>
       <c r="C109" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D109" t="s">
         <v>97</v>
@@ -14009,7 +14009,7 @@
         <v>7506218110423</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D110" t="s">
         <v>97</v>
@@ -14110,7 +14110,7 @@
         <v>7506218111512</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D111" t="s">
         <v>97</v>
@@ -14211,7 +14211,7 @@
         <v>7501509900950</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
         <v>97</v>
@@ -14312,7 +14312,7 @@
         <v>7501509900158</v>
       </c>
       <c r="C113" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D113" t="s">
         <v>97</v>
@@ -14413,7 +14413,7 @@
         <v>7501509900196</v>
       </c>
       <c r="C114" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D114" t="s">
         <v>97</v>
@@ -14514,7 +14514,7 @@
         <v>7501509904606</v>
       </c>
       <c r="C115" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D115" t="s">
         <v>97</v>
@@ -14615,7 +14615,7 @@
         <v>7501509905740</v>
       </c>
       <c r="C116" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D116" t="s">
         <v>97</v>
@@ -14716,7 +14716,7 @@
         <v>7506218111673</v>
       </c>
       <c r="C117" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
         <v>97</v>
@@ -14817,7 +14817,7 @@
         <v>7501509900141</v>
       </c>
       <c r="C118" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D118" t="s">
         <v>97</v>
@@ -14918,7 +14918,7 @@
         <v>7501509900165</v>
       </c>
       <c r="C119" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
@@ -15019,7 +15019,7 @@
         <v>7501509900974</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D120" t="s">
         <v>97</v>
@@ -15120,7 +15120,7 @@
         <v>7501509900967</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D121" t="s">
         <v>97</v>
@@ -15221,7 +15221,7 @@
         <v>7501509900981</v>
       </c>
       <c r="C122" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -15322,7 +15322,7 @@
         <v>7501509905245</v>
       </c>
       <c r="C123" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -15423,7 +15423,7 @@
         <v>7501509905221</v>
       </c>
       <c r="C124" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -15524,7 +15524,7 @@
         <v>7501509900998</v>
       </c>
       <c r="C125" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -15625,7 +15625,7 @@
         <v>7501509901001</v>
       </c>
       <c r="C126" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D126" t="s">
         <v>97</v>
@@ -15726,7 +15726,7 @@
         <v>7501509900172</v>
       </c>
       <c r="C127" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D127" t="s">
         <v>97</v>
@@ -15827,7 +15827,7 @@
         <v>7501509900202</v>
       </c>
       <c r="C128" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D128" t="s">
         <v>97</v>
@@ -15928,7 +15928,7 @@
         <v>7501509900189</v>
       </c>
       <c r="C129" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D129" t="s">
         <v>97</v>
@@ -16029,7 +16029,7 @@
         <v>7501509901025</v>
       </c>
       <c r="C130" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D130" t="s">
         <v>97</v>
@@ -16130,7 +16130,7 @@
         <v>7501509901018</v>
       </c>
       <c r="C131" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D131" t="s">
         <v>97</v>
@@ -16231,7 +16231,7 @@
         <v>7501509901032</v>
       </c>
       <c r="C132" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D132" t="s">
         <v>97</v>
@@ -16332,7 +16332,7 @@
         <v>7501509907362</v>
       </c>
       <c r="C133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D133" t="s">
         <v>97</v>
@@ -16433,7 +16433,7 @@
         <v>7501509907379</v>
       </c>
       <c r="C134" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D134" t="s">
         <v>97</v>
@@ -16534,7 +16534,7 @@
         <v>7501509901049</v>
       </c>
       <c r="C135" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D135" t="s">
         <v>97</v>
@@ -16635,7 +16635,7 @@
         <v>7501509901056</v>
       </c>
       <c r="C136" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D136" t="s">
         <v>97</v>
@@ -16736,7 +16736,7 @@
         <v>7501509900110</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D137" t="s">
         <v>97</v>
@@ -16837,7 +16837,7 @@
         <v>7501509900219</v>
       </c>
       <c r="C138" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D138" t="s">
         <v>97</v>
@@ -16938,7 +16938,7 @@
         <v>7506218111666</v>
       </c>
       <c r="C139" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D139" t="s">
         <v>97</v>
@@ -17039,7 +17039,7 @@
         <v>7501509900233</v>
       </c>
       <c r="C140" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D140" t="s">
         <v>97</v>
@@ -17140,7 +17140,7 @@
         <v>7501509900240</v>
       </c>
       <c r="C141" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D141" t="s">
         <v>97</v>
@@ -17241,7 +17241,7 @@
         <v>7501509901070</v>
       </c>
       <c r="C142" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D142" t="s">
         <v>97</v>
@@ -17342,7 +17342,7 @@
         <v>7501509901063</v>
       </c>
       <c r="C143" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D143" t="s">
         <v>97</v>
@@ -17443,7 +17443,7 @@
         <v>7501509901087</v>
       </c>
       <c r="C144" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D144" t="s">
         <v>97</v>
@@ -17544,7 +17544,7 @@
         <v>7501509907386</v>
       </c>
       <c r="C145" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D145" t="s">
         <v>97</v>
@@ -17645,7 +17645,7 @@
         <v>7501509907393</v>
       </c>
       <c r="C146" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D146" t="s">
         <v>97</v>
@@ -17746,7 +17746,7 @@
         <v>7501509901094</v>
       </c>
       <c r="C147" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D147" t="s">
         <v>97</v>
@@ -17847,7 +17847,7 @@
         <v>7506218112458</v>
       </c>
       <c r="C148" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D148" t="s">
         <v>97</v>
@@ -17948,7 +17948,7 @@
         <v>7506218112229</v>
       </c>
       <c r="C149" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D149" t="s">
         <v>97</v>
@@ -18049,7 +18049,7 @@
         <v>7506218112250</v>
       </c>
       <c r="C150" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D150" t="s">
         <v>97</v>
@@ -18150,7 +18150,7 @@
         <v>7501509906693</v>
       </c>
       <c r="C151" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D151" t="s">
         <v>97</v>
@@ -18251,7 +18251,7 @@
         <v>7501509901780</v>
       </c>
       <c r="C152" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D152" t="s">
         <v>97</v>
@@ -18352,7 +18352,7 @@
         <v>7506218110096</v>
       </c>
       <c r="C153" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D153" t="s">
         <v>97</v>
@@ -18453,7 +18453,7 @@
         <v>7506218110072</v>
       </c>
       <c r="C154" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D154" t="s">
         <v>97</v>
@@ -18554,7 +18554,7 @@
         <v>7501509901834</v>
       </c>
       <c r="C155" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D155" t="s">
         <v>97</v>
@@ -18655,7 +18655,7 @@
         <v>7506218110102</v>
       </c>
       <c r="C156" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D156" t="s">
         <v>97</v>
@@ -18756,7 +18756,7 @@
         <v>7506218110089</v>
       </c>
       <c r="C157" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D157" t="s">
         <v>97</v>
@@ -18857,7 +18857,7 @@
         <v>7501509903234</v>
       </c>
       <c r="C158" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D158" t="s">
         <v>97</v>
@@ -18958,7 +18958,7 @@
         <v>7501509903258</v>
       </c>
       <c r="C159" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D159" t="s">
         <v>97</v>
@@ -19059,7 +19059,7 @@
         <v>7501509903241</v>
       </c>
       <c r="C160" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D160" t="s">
         <v>97</v>
@@ -19160,7 +19160,7 @@
         <v>7506218110201</v>
       </c>
       <c r="C161" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D161" t="s">
         <v>97</v>
@@ -19261,7 +19261,7 @@
         <v>7506218110256</v>
       </c>
       <c r="C162" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D162" t="s">
         <v>97</v>
@@ -19362,7 +19362,7 @@
         <v>7506218110126</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D163" t="s">
         <v>97</v>
@@ -19463,7 +19463,7 @@
         <v>7506218110119</v>
       </c>
       <c r="C164" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D164" t="s">
         <v>97</v>
@@ -19564,7 +19564,7 @@
         <v>7506218110133</v>
       </c>
       <c r="C165" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D165" t="s">
         <v>97</v>
@@ -19665,7 +19665,7 @@
         <v>7506218110140</v>
       </c>
       <c r="C166" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D166" t="s">
         <v>97</v>

--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150FE0E7-52B8-4B7E-83B6-055C59A93C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9551F-09A8-4C65-861F-699271764DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,9 +1777,6 @@
     <t xml:space="preserve">Concrete Anchor 7/32" (20 Pack) </t>
   </si>
   <si>
-    <t>Masonry Anchor 7/32" (20 Pack)</t>
-  </si>
-  <si>
     <t>Concrete Anchor 7/32" (100 Pack)</t>
   </si>
   <si>
@@ -2135,6 +2132,9 @@
   </si>
   <si>
     <t>Self Drill Dry Wall Anchor With Screws (10pack)</t>
+  </si>
+  <si>
+    <t>Concrete Anchor 7/32" (20 Pack)</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2982,7 @@
   <dimension ref="A1:AG166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3101,7 +3101,7 @@
         <v>7501509901865</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -3202,7 +3202,7 @@
         <v>7501509900226</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -3303,7 +3303,7 @@
         <v>7501509906228</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -3404,7 +3404,7 @@
         <v>7501509901872</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -3606,7 +3606,7 @@
         <v>7501509906235</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -3707,7 +3707,7 @@
         <v>7501509901889</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -3808,7 +3808,7 @@
         <v>7501509900363</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -3909,7 +3909,7 @@
         <v>7501509906242</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
         <v>7501509900288</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -4111,7 +4111,7 @@
         <v>7501509901896</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -4212,7 +4212,7 @@
         <v>7501509906259</v>
       </c>
       <c r="C13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -4313,7 +4313,7 @@
         <v>7501509900295</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -4414,7 +4414,7 @@
         <v>7501509906266</v>
       </c>
       <c r="C15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -4515,7 +4515,7 @@
         <v>7501509901902</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -4616,7 +4616,7 @@
         <v>7501509901919</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -4717,7 +4717,7 @@
         <v>7501509907744</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -4818,7 +4818,7 @@
         <v>7501509900370</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -4919,7 +4919,7 @@
         <v>7501509901926</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -5020,7 +5020,7 @@
         <v>7501509907737</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -5121,7 +5121,7 @@
         <v>7501509900387</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -5222,7 +5222,7 @@
         <v>7501509905726</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -5323,7 +5323,7 @@
         <v>7501509905733</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -5424,7 +5424,7 @@
         <v>7501509906556</v>
       </c>
       <c r="C25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -5929,7 +5929,7 @@
         <v>7501509905955</v>
       </c>
       <c r="C30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -6030,7 +6030,7 @@
         <v>7501509906013</v>
       </c>
       <c r="C31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -6131,7 +6131,7 @@
         <v>7501509900899</v>
       </c>
       <c r="C32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -6232,7 +6232,7 @@
         <v>7501509902060</v>
       </c>
       <c r="C33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -6333,7 +6333,7 @@
         <v>7501509907751</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -6434,7 +6434,7 @@
         <v>7501509900905</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -6535,7 +6535,7 @@
         <v>7501509902077</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
@@ -6636,7 +6636,7 @@
         <v>7501509907768</v>
       </c>
       <c r="C37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -6737,7 +6737,7 @@
         <v>7501509902084</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
@@ -6838,7 +6838,7 @@
         <v>7501509907775</v>
       </c>
       <c r="C39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -6939,7 +6939,7 @@
         <v>7501509903999</v>
       </c>
       <c r="C40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -7040,7 +7040,7 @@
         <v>7501509902091</v>
       </c>
       <c r="C41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
@@ -7141,7 +7141,7 @@
         <v>7501509907782</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -7242,7 +7242,7 @@
         <v>7501509902107</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
@@ -7343,7 +7343,7 @@
         <v>7501509907799</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
@@ -7444,7 +7444,7 @@
         <v>7501509901957</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -7545,7 +7545,7 @@
         <v>7501509908987</v>
       </c>
       <c r="C46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -7646,7 +7646,7 @@
         <v>7501509908970</v>
       </c>
       <c r="C47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -7747,7 +7747,7 @@
         <v>7501509901964</v>
       </c>
       <c r="C48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
@@ -7848,7 +7848,7 @@
         <v>7506218110751</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D49" t="s">
         <v>97</v>
@@ -7949,7 +7949,7 @@
         <v>7501509900394</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
@@ -8050,7 +8050,7 @@
         <v>7506218110805</v>
       </c>
       <c r="C51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
@@ -8151,7 +8151,7 @@
         <v>7501509901971</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
@@ -8252,7 +8252,7 @@
         <v>7501509900400</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" t="s">
         <v>97</v>
@@ -8353,7 +8353,7 @@
         <v>7501509901988</v>
       </c>
       <c r="C54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
@@ -8454,7 +8454,7 @@
         <v>7501509905313</v>
       </c>
       <c r="C55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
@@ -8555,7 +8555,7 @@
         <v>7501509905771</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D56" t="s">
         <v>97</v>
@@ -8656,7 +8656,7 @@
         <v>7501509900417</v>
       </c>
       <c r="C57" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
@@ -8757,7 +8757,7 @@
         <v>7501509905641</v>
       </c>
       <c r="C58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
@@ -8858,7 +8858,7 @@
         <v>7501509901995</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D59" t="s">
         <v>97</v>
@@ -8959,7 +8959,7 @@
         <v>7501509900844</v>
       </c>
       <c r="C60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
@@ -9060,7 +9060,7 @@
         <v>7501509902008</v>
       </c>
       <c r="C61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D61" t="s">
         <v>97</v>
@@ -9161,7 +9161,7 @@
         <v>7501509900127</v>
       </c>
       <c r="C62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D62" t="s">
         <v>97</v>
@@ -9262,7 +9262,7 @@
         <v>7501509902022</v>
       </c>
       <c r="C63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D63" t="s">
         <v>97</v>
@@ -9363,7 +9363,7 @@
         <v>7501509900851</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
@@ -9464,7 +9464,7 @@
         <v>7501509902039</v>
       </c>
       <c r="C65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D65" t="s">
         <v>97</v>
@@ -9565,7 +9565,7 @@
         <v>7501509900301</v>
       </c>
       <c r="C66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D66" t="s">
         <v>97</v>
@@ -9666,7 +9666,7 @@
         <v>7501509900868</v>
       </c>
       <c r="C67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D67" t="s">
         <v>97</v>
@@ -9767,7 +9767,7 @@
         <v>7501509902046</v>
       </c>
       <c r="C68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
         <v>97</v>
@@ -9868,7 +9868,7 @@
         <v>7501509900356</v>
       </c>
       <c r="C69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s">
         <v>97</v>
@@ -9969,7 +9969,7 @@
         <v>7501509900875</v>
       </c>
       <c r="C70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -10070,7 +10070,7 @@
         <v>7501509902053</v>
       </c>
       <c r="C71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D71" t="s">
         <v>97</v>
@@ -10171,7 +10171,7 @@
         <v>7501509900882</v>
       </c>
       <c r="C72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
         <v>97</v>
@@ -10272,7 +10272,7 @@
         <v>7501509905795</v>
       </c>
       <c r="C73" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D73" t="s">
         <v>97</v>
@@ -10373,7 +10373,7 @@
         <v>7501509905788</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D74" t="s">
         <v>97</v>
@@ -10474,7 +10474,7 @@
         <v>7501509907058</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D75" t="s">
         <v>97</v>
@@ -10575,7 +10575,7 @@
         <v>7506218113011</v>
       </c>
       <c r="C76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
@@ -10676,7 +10676,7 @@
         <v>7506218113035</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D77" t="s">
         <v>34</v>
@@ -10777,7 +10777,7 @@
         <v>7501509907720</v>
       </c>
       <c r="C78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
@@ -10878,7 +10878,7 @@
         <v>7501509908550</v>
       </c>
       <c r="C79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D79" t="s">
         <v>97</v>
@@ -10979,7 +10979,7 @@
         <v>7501509908574</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
@@ -11080,7 +11080,7 @@
         <v>7501509908598</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -11181,7 +11181,7 @@
         <v>7506218111604</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D82" t="s">
         <v>97</v>
@@ -11282,7 +11282,7 @@
         <v>7501509909083</v>
       </c>
       <c r="C83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -11383,7 +11383,7 @@
         <v>7501509909120</v>
       </c>
       <c r="C84" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D84" t="s">
         <v>97</v>
@@ -11484,7 +11484,7 @@
         <v>7501509909168</v>
       </c>
       <c r="C85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D85" t="s">
         <v>97</v>
@@ -11585,7 +11585,7 @@
         <v>7501509909205</v>
       </c>
       <c r="C86" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D86" t="s">
         <v>97</v>
@@ -11686,7 +11686,7 @@
         <v>7501509907966</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D87" t="s">
         <v>97</v>
@@ -11787,7 +11787,7 @@
         <v>7501509908567</v>
       </c>
       <c r="C88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
@@ -11888,7 +11888,7 @@
         <v>7501509908581</v>
       </c>
       <c r="C89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -11989,7 +11989,7 @@
         <v>7501509908604</v>
       </c>
       <c r="C90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
@@ -12090,7 +12090,7 @@
         <v>7506218111611</v>
       </c>
       <c r="C91" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D91" t="s">
         <v>97</v>
@@ -12191,7 +12191,7 @@
         <v>7501509909809</v>
       </c>
       <c r="C92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -12292,7 +12292,7 @@
         <v>7501509909816</v>
       </c>
       <c r="C93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -12393,7 +12393,7 @@
         <v>7501509909823</v>
       </c>
       <c r="C94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -12494,7 +12494,7 @@
         <v>7501509908246</v>
       </c>
       <c r="C95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -12595,7 +12595,7 @@
         <v>7501509909267</v>
       </c>
       <c r="C96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -12696,7 +12696,7 @@
         <v>7501509909274</v>
       </c>
       <c r="C97" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
@@ -12797,7 +12797,7 @@
         <v>7501509909281</v>
       </c>
       <c r="C98" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
@@ -12898,7 +12898,7 @@
         <v>7501509909786</v>
       </c>
       <c r="C99" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
@@ -12999,7 +12999,7 @@
         <v>7501509900134</v>
       </c>
       <c r="C100" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D100" t="s">
         <v>97</v>
@@ -13100,7 +13100,7 @@
         <v>7501509906174</v>
       </c>
       <c r="C101" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D101" t="s">
         <v>97</v>
@@ -13201,7 +13201,7 @@
         <v>7501509906150</v>
       </c>
       <c r="C102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D102" t="s">
         <v>97</v>
@@ -13302,7 +13302,7 @@
         <v>7501509907140</v>
       </c>
       <c r="C103" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D103" t="s">
         <v>97</v>
@@ -13403,7 +13403,7 @@
         <v>7506218110485</v>
       </c>
       <c r="C104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D104" t="s">
         <v>97</v>
@@ -13504,7 +13504,7 @@
         <v>7506218110706</v>
       </c>
       <c r="C105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
         <v>97</v>
@@ -13605,7 +13605,7 @@
         <v>7506218110683</v>
       </c>
       <c r="C106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D106" t="s">
         <v>97</v>
@@ -13706,7 +13706,7 @@
         <v>7506218110416</v>
       </c>
       <c r="C107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D107" t="s">
         <v>97</v>
@@ -13807,7 +13807,7 @@
         <v>7506218110409</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
         <v>97</v>
@@ -13908,7 +13908,7 @@
         <v>7506218110430</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D109" t="s">
         <v>97</v>
@@ -14009,7 +14009,7 @@
         <v>7506218110423</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D110" t="s">
         <v>97</v>
@@ -14110,7 +14110,7 @@
         <v>7506218111512</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D111" t="s">
         <v>97</v>
@@ -14211,7 +14211,7 @@
         <v>7501509900950</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D112" t="s">
         <v>97</v>
@@ -14312,7 +14312,7 @@
         <v>7501509900158</v>
       </c>
       <c r="C113" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D113" t="s">
         <v>97</v>
@@ -14413,7 +14413,7 @@
         <v>7501509900196</v>
       </c>
       <c r="C114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D114" t="s">
         <v>97</v>
@@ -14514,7 +14514,7 @@
         <v>7501509904606</v>
       </c>
       <c r="C115" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D115" t="s">
         <v>97</v>
@@ -14615,7 +14615,7 @@
         <v>7501509905740</v>
       </c>
       <c r="C116" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
         <v>97</v>
@@ -14716,7 +14716,7 @@
         <v>7506218111673</v>
       </c>
       <c r="C117" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s">
         <v>97</v>
@@ -14817,7 +14817,7 @@
         <v>7501509900141</v>
       </c>
       <c r="C118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D118" t="s">
         <v>97</v>
@@ -14918,7 +14918,7 @@
         <v>7501509900165</v>
       </c>
       <c r="C119" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
@@ -15019,7 +15019,7 @@
         <v>7501509900974</v>
       </c>
       <c r="C120" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
         <v>97</v>
@@ -15120,7 +15120,7 @@
         <v>7501509900967</v>
       </c>
       <c r="C121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D121" t="s">
         <v>97</v>
@@ -15221,7 +15221,7 @@
         <v>7501509900981</v>
       </c>
       <c r="C122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
@@ -15322,7 +15322,7 @@
         <v>7501509905245</v>
       </c>
       <c r="C123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
@@ -15423,7 +15423,7 @@
         <v>7501509905221</v>
       </c>
       <c r="C124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
@@ -15524,7 +15524,7 @@
         <v>7501509900998</v>
       </c>
       <c r="C125" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
@@ -15625,7 +15625,7 @@
         <v>7501509901001</v>
       </c>
       <c r="C126" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D126" t="s">
         <v>97</v>
@@ -15726,7 +15726,7 @@
         <v>7501509900172</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D127" t="s">
         <v>97</v>
@@ -15827,7 +15827,7 @@
         <v>7501509900202</v>
       </c>
       <c r="C128" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D128" t="s">
         <v>97</v>
@@ -15928,7 +15928,7 @@
         <v>7501509900189</v>
       </c>
       <c r="C129" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D129" t="s">
         <v>97</v>
@@ -16029,7 +16029,7 @@
         <v>7501509901025</v>
       </c>
       <c r="C130" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D130" t="s">
         <v>97</v>
@@ -16130,7 +16130,7 @@
         <v>7501509901018</v>
       </c>
       <c r="C131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D131" t="s">
         <v>97</v>
@@ -16231,7 +16231,7 @@
         <v>7501509901032</v>
       </c>
       <c r="C132" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D132" t="s">
         <v>97</v>
@@ -16332,7 +16332,7 @@
         <v>7501509907362</v>
       </c>
       <c r="C133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D133" t="s">
         <v>97</v>
@@ -16433,7 +16433,7 @@
         <v>7501509907379</v>
       </c>
       <c r="C134" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D134" t="s">
         <v>97</v>
@@ -16534,7 +16534,7 @@
         <v>7501509901049</v>
       </c>
       <c r="C135" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D135" t="s">
         <v>97</v>
@@ -16635,7 +16635,7 @@
         <v>7501509901056</v>
       </c>
       <c r="C136" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D136" t="s">
         <v>97</v>
@@ -16736,7 +16736,7 @@
         <v>7501509900110</v>
       </c>
       <c r="C137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D137" t="s">
         <v>97</v>
@@ -16837,7 +16837,7 @@
         <v>7501509900219</v>
       </c>
       <c r="C138" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D138" t="s">
         <v>97</v>
@@ -16938,7 +16938,7 @@
         <v>7506218111666</v>
       </c>
       <c r="C139" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D139" t="s">
         <v>97</v>
@@ -17039,7 +17039,7 @@
         <v>7501509900233</v>
       </c>
       <c r="C140" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D140" t="s">
         <v>97</v>
@@ -17140,7 +17140,7 @@
         <v>7501509900240</v>
       </c>
       <c r="C141" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D141" t="s">
         <v>97</v>
@@ -17241,7 +17241,7 @@
         <v>7501509901070</v>
       </c>
       <c r="C142" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D142" t="s">
         <v>97</v>
@@ -17342,7 +17342,7 @@
         <v>7501509901063</v>
       </c>
       <c r="C143" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D143" t="s">
         <v>97</v>
@@ -17443,7 +17443,7 @@
         <v>7501509901087</v>
       </c>
       <c r="C144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D144" t="s">
         <v>97</v>
@@ -17544,7 +17544,7 @@
         <v>7501509907386</v>
       </c>
       <c r="C145" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
         <v>97</v>
@@ -17645,7 +17645,7 @@
         <v>7501509907393</v>
       </c>
       <c r="C146" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D146" t="s">
         <v>97</v>
@@ -17746,7 +17746,7 @@
         <v>7501509901094</v>
       </c>
       <c r="C147" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D147" t="s">
         <v>97</v>
@@ -17847,7 +17847,7 @@
         <v>7506218112458</v>
       </c>
       <c r="C148" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D148" t="s">
         <v>97</v>
@@ -17948,7 +17948,7 @@
         <v>7506218112229</v>
       </c>
       <c r="C149" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D149" t="s">
         <v>97</v>
@@ -18049,7 +18049,7 @@
         <v>7506218112250</v>
       </c>
       <c r="C150" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D150" t="s">
         <v>97</v>
@@ -18150,7 +18150,7 @@
         <v>7501509906693</v>
       </c>
       <c r="C151" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D151" t="s">
         <v>97</v>
@@ -18251,7 +18251,7 @@
         <v>7501509901780</v>
       </c>
       <c r="C152" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D152" t="s">
         <v>97</v>
@@ -18352,7 +18352,7 @@
         <v>7506218110096</v>
       </c>
       <c r="C153" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D153" t="s">
         <v>97</v>
@@ -18453,7 +18453,7 @@
         <v>7506218110072</v>
       </c>
       <c r="C154" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D154" t="s">
         <v>97</v>
@@ -18554,7 +18554,7 @@
         <v>7501509901834</v>
       </c>
       <c r="C155" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D155" t="s">
         <v>97</v>
@@ -18655,7 +18655,7 @@
         <v>7506218110102</v>
       </c>
       <c r="C156" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D156" t="s">
         <v>97</v>
@@ -18756,7 +18756,7 @@
         <v>7506218110089</v>
       </c>
       <c r="C157" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D157" t="s">
         <v>97</v>
@@ -18857,7 +18857,7 @@
         <v>7501509903234</v>
       </c>
       <c r="C158" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D158" t="s">
         <v>97</v>
@@ -18958,7 +18958,7 @@
         <v>7501509903258</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D159" t="s">
         <v>97</v>
@@ -19059,7 +19059,7 @@
         <v>7501509903241</v>
       </c>
       <c r="C160" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D160" t="s">
         <v>97</v>
@@ -19160,7 +19160,7 @@
         <v>7506218110201</v>
       </c>
       <c r="C161" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D161" t="s">
         <v>97</v>
@@ -19261,7 +19261,7 @@
         <v>7506218110256</v>
       </c>
       <c r="C162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D162" t="s">
         <v>97</v>
@@ -19362,7 +19362,7 @@
         <v>7506218110126</v>
       </c>
       <c r="C163" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D163" t="s">
         <v>97</v>
@@ -19463,7 +19463,7 @@
         <v>7506218110119</v>
       </c>
       <c r="C164" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D164" t="s">
         <v>97</v>
@@ -19564,7 +19564,7 @@
         <v>7506218110133</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D165" t="s">
         <v>97</v>
@@ -19665,7 +19665,7 @@
         <v>7506218110140</v>
       </c>
       <c r="C166" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D166" t="s">
         <v>97</v>

--- a/models/products.xlsx
+++ b/models/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\jakee\Documents\GitHub\thorsmex_digital_catalog\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9551F-09A8-4C65-861F-699271764DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17EE11-7485-4C21-9FCA-58B0F37B0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="514">
   <si>
     <t>model_number</t>
   </si>
@@ -432,10 +432,6 @@
   </si>
   <si>
     <t>Wiring &amp; Wiring Accessories</t>
-  </si>
-  <si>
-    <t>For use in pass-through installations_x000D_
-of a wall</t>
   </si>
   <si>
     <t>For use in pass-through installations_x000D_
@@ -2136,11 +2132,28 @@
   <si>
     <t>Concrete Anchor 7/32" (20 Pack)</t>
   </si>
+  <si>
+    <t>For use in pass-through installations
+of a wall;
+Indoor and outdoor use;
+Color UV Black;
+Hardness 80 Shore A (Flexible);
+Hardness 40 Shore D (Rigid);
+Impact resistant;
+For cable up to:
+Flexible 5.5mm/diameter; Rigid 9.0 mm diameter</t>
+  </si>
+  <si>
+    <t>For use in pass-through installations of a wall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2618,12 +2631,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2981,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2990,6 +3004,7 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3116,7 @@
         <v>7501509901865</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -3127,7 +3142,7 @@
       <c r="K2">
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>783.6</v>
       </c>
       <c r="M2">
@@ -3202,7 +3217,7 @@
         <v>7501509900226</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -3303,7 +3318,7 @@
         <v>7501509906228</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -3404,7 +3419,7 @@
         <v>7501509901872</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -3505,7 +3520,7 @@
         <v>7501509900318</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -3606,7 +3621,7 @@
         <v>7501509906235</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -3707,7 +3722,7 @@
         <v>7501509901889</v>
       </c>
       <c r="C8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -3808,7 +3823,7 @@
         <v>7501509900363</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -3909,7 +3924,7 @@
         <v>7501509906242</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -4010,7 +4025,7 @@
         <v>7501509900288</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -4111,7 +4126,7 @@
         <v>7501509901896</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -4212,7 +4227,7 @@
         <v>7501509906259</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -4313,7 +4328,7 @@
         <v>7501509900295</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -4414,7 +4429,7 @@
         <v>7501509906266</v>
       </c>
       <c r="C15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -4515,7 +4530,7 @@
         <v>7501509901902</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -4616,7 +4631,7 @@
         <v>7501509901919</v>
       </c>
       <c r="C17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -4717,7 +4732,7 @@
         <v>7501509907744</v>
       </c>
       <c r="C18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -4818,7 +4833,7 @@
         <v>7501509900370</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -4919,7 +4934,7 @@
         <v>7501509901926</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -5020,7 +5035,7 @@
         <v>7501509907737</v>
       </c>
       <c r="C21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -5121,7 +5136,7 @@
         <v>7501509900387</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -5222,7 +5237,7 @@
         <v>7501509905726</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -5323,7 +5338,7 @@
         <v>7501509905733</v>
       </c>
       <c r="C24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -5424,7 +5439,7 @@
         <v>7501509906556</v>
       </c>
       <c r="C25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -5534,13 +5549,13 @@
         <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>513</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
         <v>94</v>
@@ -5603,7 +5618,7 @@
         <v>1392.01</v>
       </c>
       <c r="AC26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD26" t="s">
         <v>80</v>
@@ -5620,13 +5635,13 @@
     </row>
     <row r="27" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2">
         <v>7506218111987</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
@@ -5635,13 +5650,13 @@
         <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
         <v>94</v>
@@ -5704,7 +5719,7 @@
         <v>1138.03</v>
       </c>
       <c r="AC27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD27" t="s">
         <v>80</v>
@@ -5721,13 +5736,13 @@
     </row>
     <row r="28" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2">
         <v>7506218112182</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -5736,13 +5751,13 @@
         <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>94</v>
@@ -5822,13 +5837,13 @@
     </row>
     <row r="29" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2">
         <v>7506218112199</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>97</v>
@@ -5837,13 +5852,13 @@
         <v>98</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
         <v>94</v>
@@ -5923,13 +5938,13 @@
     </row>
     <row r="30" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2">
         <v>7501509905955</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -5938,16 +5953,16 @@
         <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" t="s">
         <v>112</v>
-      </c>
-      <c r="I30" t="s">
-        <v>113</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -6024,13 +6039,13 @@
     </row>
     <row r="31" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2">
         <v>7501509906013</v>
       </c>
       <c r="C31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -6039,16 +6054,16 @@
         <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" t="s">
         <v>112</v>
-      </c>
-      <c r="I31" t="s">
-        <v>113</v>
       </c>
       <c r="J31">
         <v>3.99</v>
@@ -6125,13 +6140,13 @@
     </row>
     <row r="32" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2">
         <v>7501509900899</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -6140,16 +6155,16 @@
         <v>35</v>
       </c>
       <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" t="s">
         <v>118</v>
-      </c>
-      <c r="I32" t="s">
-        <v>119</v>
       </c>
       <c r="J32">
         <v>20</v>
@@ -6226,31 +6241,31 @@
     </row>
     <row r="33" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2">
         <v>7501509902060</v>
       </c>
       <c r="C33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" t="s">
         <v>118</v>
-      </c>
-      <c r="I33" t="s">
-        <v>119</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -6327,13 +6342,13 @@
     </row>
     <row r="34" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2">
         <v>7501509907751</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
@@ -6342,16 +6357,16 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" t="s">
         <v>118</v>
-      </c>
-      <c r="I34" t="s">
-        <v>119</v>
       </c>
       <c r="J34">
         <v>60</v>
@@ -6411,7 +6426,7 @@
         <v>198.87</v>
       </c>
       <c r="AC34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD34" t="s">
         <v>80</v>
@@ -6428,13 +6443,13 @@
     </row>
     <row r="35" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2">
         <v>7501509900905</v>
       </c>
       <c r="C35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -6443,16 +6458,16 @@
         <v>35</v>
       </c>
       <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35">
         <v>5.33</v>
@@ -6529,31 +6544,31 @@
     </row>
     <row r="36" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2">
         <v>7501509902077</v>
       </c>
       <c r="C36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>7.72</v>
@@ -6630,13 +6645,13 @@
     </row>
     <row r="37" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2">
         <v>7501509907768</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
@@ -6645,16 +6660,16 @@
         <v>35</v>
       </c>
       <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J37">
         <v>6.17</v>
@@ -6714,7 +6729,7 @@
         <v>201.51</v>
       </c>
       <c r="AC37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD37" t="s">
         <v>80</v>
@@ -6731,31 +6746,31 @@
     </row>
     <row r="38" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2">
         <v>7501509902084</v>
       </c>
       <c r="C38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" t="s">
         <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J38">
         <v>7.77</v>
@@ -6832,13 +6847,13 @@
     </row>
     <row r="39" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2">
         <v>7501509907775</v>
       </c>
       <c r="C39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -6847,16 +6862,16 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39">
         <v>14.4</v>
@@ -6916,7 +6931,7 @@
         <v>153.88999999999999</v>
       </c>
       <c r="AC39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD39" t="s">
         <v>80</v>
@@ -6933,13 +6948,13 @@
     </row>
     <row r="40" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="2">
         <v>7501509903999</v>
       </c>
       <c r="C40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -6948,16 +6963,16 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J40">
         <v>4.87</v>
@@ -7034,31 +7049,31 @@
     </row>
     <row r="41" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2">
         <v>7501509902091</v>
       </c>
       <c r="C41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J41">
         <v>7.83</v>
@@ -7135,13 +7150,13 @@
     </row>
     <row r="42" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2">
         <v>7501509907782</v>
       </c>
       <c r="C42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
@@ -7150,16 +7165,16 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J42">
         <v>6.29</v>
@@ -7219,7 +7234,7 @@
         <v>145.94999999999999</v>
       </c>
       <c r="AC42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD42" t="s">
         <v>80</v>
@@ -7236,31 +7251,31 @@
     </row>
     <row r="43" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2">
         <v>7501509902107</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J43">
         <v>5.66</v>
@@ -7337,13 +7352,13 @@
     </row>
     <row r="44" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2">
         <v>7501509907799</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
@@ -7352,16 +7367,16 @@
         <v>35</v>
       </c>
       <c r="F44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J44">
         <v>5.53</v>
@@ -7421,7 +7436,7 @@
         <v>100.98</v>
       </c>
       <c r="AC44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD44" t="s">
         <v>80</v>
@@ -7438,13 +7453,13 @@
     </row>
     <row r="45" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="2">
         <v>7501509901957</v>
       </c>
       <c r="C45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -7453,16 +7468,16 @@
         <v>35</v>
       </c>
       <c r="F45" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" t="s">
         <v>147</v>
-      </c>
-      <c r="I45" t="s">
-        <v>148</v>
       </c>
       <c r="J45">
         <v>15.5</v>
@@ -7539,13 +7554,13 @@
     </row>
     <row r="46" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2">
         <v>7501509908987</v>
       </c>
       <c r="C46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
@@ -7554,16 +7569,16 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J46">
         <v>2.99</v>
@@ -7640,13 +7655,13 @@
     </row>
     <row r="47" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2">
         <v>7501509908970</v>
       </c>
       <c r="C47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -7655,16 +7670,16 @@
         <v>35</v>
       </c>
       <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J47">
         <v>12.56</v>
@@ -7727,7 +7742,7 @@
         <v>40</v>
       </c>
       <c r="AD47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE47">
         <v>100</v>
@@ -7741,31 +7756,31 @@
     </row>
     <row r="48" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="2">
         <v>7501509901964</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" t="s">
         <v>158</v>
-      </c>
-      <c r="I48" t="s">
-        <v>159</v>
       </c>
       <c r="J48">
         <v>10.23</v>
@@ -7842,31 +7857,31 @@
     </row>
     <row r="49" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2">
         <v>7506218110751</v>
       </c>
       <c r="C49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D49" t="s">
         <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="I49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J49">
         <v>6.79</v>
@@ -7943,31 +7958,31 @@
     </row>
     <row r="50" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" s="2">
         <v>7501509900394</v>
       </c>
       <c r="C50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" t="s">
         <v>158</v>
-      </c>
-      <c r="I50" t="s">
-        <v>159</v>
       </c>
       <c r="J50">
         <v>4.0199999999999996</v>
@@ -8044,31 +8059,31 @@
     </row>
     <row r="51" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2">
         <v>7506218110805</v>
       </c>
       <c r="C51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="I51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J51">
         <v>4.2</v>
@@ -8145,31 +8160,31 @@
     </row>
     <row r="52" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="2">
         <v>7501509901971</v>
       </c>
       <c r="C52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D52" t="s">
         <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J52">
         <v>7.13</v>
@@ -8246,31 +8261,31 @@
     </row>
     <row r="53" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2">
         <v>7501509900400</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D53" t="s">
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J53">
         <v>4.34</v>
@@ -8347,31 +8362,31 @@
     </row>
     <row r="54" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2">
         <v>7501509901988</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J54">
         <v>10.23</v>
@@ -8448,31 +8463,31 @@
     </row>
     <row r="55" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2">
         <v>7501509905313</v>
       </c>
       <c r="C55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J55">
         <v>4.97</v>
@@ -8549,31 +8564,31 @@
     </row>
     <row r="56" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="2">
         <v>7501509905771</v>
       </c>
       <c r="C56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" t="s">
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J56">
         <v>5.77</v>
@@ -8650,31 +8665,31 @@
     </row>
     <row r="57" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="2">
         <v>7501509900417</v>
       </c>
       <c r="C57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J57">
         <v>6.48</v>
@@ -8751,31 +8766,31 @@
     </row>
     <row r="58" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="2">
         <v>7501509905641</v>
       </c>
       <c r="C58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J58">
         <v>5.15</v>
@@ -8852,31 +8867,31 @@
     </row>
     <row r="59" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="2">
         <v>7501509901995</v>
       </c>
       <c r="C59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D59" t="s">
         <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="I59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J59">
         <v>8.01</v>
@@ -8953,31 +8968,31 @@
     </row>
     <row r="60" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="2">
         <v>7501509900844</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="I60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J60">
         <v>5.41</v>
@@ -9054,31 +9069,31 @@
     </row>
     <row r="61" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="2">
         <v>7501509902008</v>
       </c>
       <c r="C61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D61" t="s">
         <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="I61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J61">
         <v>8.65</v>
@@ -9155,31 +9170,31 @@
     </row>
     <row r="62" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" s="2">
         <v>7501509900127</v>
       </c>
       <c r="C62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D62" t="s">
         <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J62">
         <v>5.53</v>
@@ -9256,31 +9271,31 @@
     </row>
     <row r="63" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2">
         <v>7501509902022</v>
       </c>
       <c r="C63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D63" t="s">
         <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J63">
         <v>10.23</v>
@@ -9357,31 +9372,31 @@
     </row>
     <row r="64" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" s="2">
         <v>7501509900851</v>
       </c>
       <c r="C64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J64">
         <v>5.0999999999999996</v>
@@ -9458,31 +9473,31 @@
     </row>
     <row r="65" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B65" s="2">
         <v>7501509902039</v>
       </c>
       <c r="C65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D65" t="s">
         <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="I65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J65">
         <v>5.0199999999999996</v>
@@ -9559,31 +9574,31 @@
     </row>
     <row r="66" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2">
         <v>7501509900301</v>
       </c>
       <c r="C66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D66" t="s">
         <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I66" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J66">
         <v>8.3699999999999992</v>
@@ -9660,31 +9675,31 @@
     </row>
     <row r="67" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="2">
         <v>7501509900868</v>
       </c>
       <c r="C67" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D67" t="s">
         <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="I67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J67">
         <v>5.0999999999999996</v>
@@ -9761,31 +9776,31 @@
     </row>
     <row r="68" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" s="2">
         <v>7501509902046</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D68" t="s">
         <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J68">
         <v>11.52</v>
@@ -9862,31 +9877,31 @@
     </row>
     <row r="69" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" s="2">
         <v>7501509900356</v>
       </c>
       <c r="C69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D69" t="s">
         <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J69">
         <v>5.44</v>
@@ -9963,31 +9978,31 @@
     </row>
     <row r="70" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2">
         <v>7501509900875</v>
       </c>
       <c r="C70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J70">
         <v>3.22</v>
@@ -10064,31 +10079,31 @@
     </row>
     <row r="71" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2">
         <v>7501509902053</v>
       </c>
       <c r="C71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D71" t="s">
         <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
+        <v>210</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J71">
         <v>11.52</v>
@@ -10165,31 +10180,31 @@
     </row>
     <row r="72" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="2">
         <v>7501509900882</v>
       </c>
       <c r="C72" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D72" t="s">
         <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J72">
         <v>6.78</v>
@@ -10266,31 +10281,31 @@
     </row>
     <row r="73" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B73" s="2">
         <v>7501509905795</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D73" t="s">
         <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -10367,31 +10382,31 @@
     </row>
     <row r="74" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="2">
         <v>7501509905788</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D74" t="s">
         <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J74">
         <v>15.86</v>
@@ -10468,31 +10483,31 @@
     </row>
     <row r="75" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" s="2">
         <v>7501509907058</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D75" t="s">
         <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" t="s">
         <v>223</v>
-      </c>
-      <c r="I75" t="s">
-        <v>224</v>
       </c>
       <c r="J75">
         <v>3.08</v>
@@ -10552,7 +10567,7 @@
         <v>57.86</v>
       </c>
       <c r="AC75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD75" t="s">
         <v>80</v>
@@ -10569,13 +10584,13 @@
     </row>
     <row r="76" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="2">
         <v>7506218113011</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D76" t="s">
         <v>34</v>
@@ -10584,16 +10599,16 @@
         <v>35</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" t="s">
         <v>227</v>
-      </c>
-      <c r="I76" t="s">
-        <v>228</v>
       </c>
       <c r="J76">
         <v>9.9600000000000009</v>
@@ -10670,13 +10685,13 @@
     </row>
     <row r="77" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B77" s="2">
         <v>7506218113035</v>
       </c>
       <c r="C77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D77" t="s">
         <v>34</v>
@@ -10685,16 +10700,16 @@
         <v>35</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" t="s">
         <v>231</v>
-      </c>
-      <c r="I77" t="s">
-        <v>232</v>
       </c>
       <c r="J77">
         <v>9.9600000000000009</v>
@@ -10771,13 +10786,13 @@
     </row>
     <row r="78" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" s="2">
         <v>7501509907720</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
@@ -10786,13 +10801,13 @@
         <v>98</v>
       </c>
       <c r="F78" t="s">
+        <v>233</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="I78" t="s">
         <v>94</v>
@@ -10855,7 +10870,7 @@
         <v>251.11</v>
       </c>
       <c r="AC78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD78" t="s">
         <v>41</v>
@@ -10872,13 +10887,13 @@
     </row>
     <row r="79" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="2">
         <v>7501509908550</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D79" t="s">
         <v>97</v>
@@ -10887,16 +10902,16 @@
         <v>98</v>
       </c>
       <c r="F79" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="I79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J79">
         <v>4.13</v>
@@ -10956,7 +10971,7 @@
         <v>238.77</v>
       </c>
       <c r="AC79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD79" t="s">
         <v>41</v>
@@ -10973,13 +10988,13 @@
     </row>
     <row r="80" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" s="2">
         <v>7501509908574</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
@@ -10988,16 +11003,16 @@
         <v>98</v>
       </c>
       <c r="F80" t="s">
+        <v>241</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J80">
         <v>23.71</v>
@@ -11057,7 +11072,7 @@
         <v>143.57</v>
       </c>
       <c r="AC80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD80" t="s">
         <v>41</v>
@@ -11074,13 +11089,13 @@
     </row>
     <row r="81" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="2">
         <v>7501509908598</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -11089,16 +11104,16 @@
         <v>98</v>
       </c>
       <c r="F81" t="s">
+        <v>245</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J81">
         <v>124.67</v>
@@ -11158,7 +11173,7 @@
         <v>211.3</v>
       </c>
       <c r="AC81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD81" t="s">
         <v>41</v>
@@ -11175,13 +11190,13 @@
     </row>
     <row r="82" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B82" s="2">
         <v>7506218111604</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D82" t="s">
         <v>97</v>
@@ -11190,16 +11205,16 @@
         <v>98</v>
       </c>
       <c r="F82" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J82">
         <v>3.37</v>
@@ -11259,7 +11274,7 @@
         <v>162.62</v>
       </c>
       <c r="AC82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD82" t="s">
         <v>41</v>
@@ -11276,13 +11291,13 @@
     </row>
     <row r="83" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2">
         <v>7501509909083</v>
       </c>
       <c r="C83" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -11291,16 +11306,16 @@
         <v>98</v>
       </c>
       <c r="F83" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J83">
         <v>3.37</v>
@@ -11360,7 +11375,7 @@
         <v>229.51</v>
       </c>
       <c r="AC83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD83" t="s">
         <v>41</v>
@@ -11377,13 +11392,13 @@
     </row>
     <row r="84" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B84" s="2">
         <v>7501509909120</v>
       </c>
       <c r="C84" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D84" t="s">
         <v>97</v>
@@ -11392,16 +11407,16 @@
         <v>98</v>
       </c>
       <c r="F84" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="I84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J84">
         <v>4.13</v>
@@ -11461,7 +11476,7 @@
         <v>437.85</v>
       </c>
       <c r="AC84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD84" t="s">
         <v>41</v>
@@ -11478,13 +11493,13 @@
     </row>
     <row r="85" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B85" s="2">
         <v>7501509909168</v>
       </c>
       <c r="C85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D85" t="s">
         <v>97</v>
@@ -11493,16 +11508,16 @@
         <v>98</v>
       </c>
       <c r="F85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J85">
         <v>4.13</v>
@@ -11562,7 +11577,7 @@
         <v>294.37</v>
       </c>
       <c r="AC85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD85" t="s">
         <v>41</v>
@@ -11579,13 +11594,13 @@
     </row>
     <row r="86" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B86" s="2">
         <v>7501509909205</v>
       </c>
       <c r="C86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D86" t="s">
         <v>97</v>
@@ -11594,16 +11609,16 @@
         <v>98</v>
       </c>
       <c r="F86" t="s">
+        <v>245</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J86">
         <v>23.71</v>
@@ -11663,7 +11678,7 @@
         <v>181.67</v>
       </c>
       <c r="AC86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD86" t="s">
         <v>41</v>
@@ -11680,13 +11695,13 @@
     </row>
     <row r="87" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" s="2">
         <v>7501509907966</v>
       </c>
       <c r="C87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D87" t="s">
         <v>97</v>
@@ -11695,16 +11710,16 @@
         <v>98</v>
       </c>
       <c r="F87" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J87">
         <v>36.81</v>
@@ -11764,7 +11779,7 @@
         <v>254.2</v>
       </c>
       <c r="AC87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD87" t="s">
         <v>41</v>
@@ -11781,13 +11796,13 @@
     </row>
     <row r="88" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="2">
         <v>7501509908567</v>
       </c>
       <c r="C88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
@@ -11796,16 +11811,16 @@
         <v>98</v>
       </c>
       <c r="F88" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="I88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J88">
         <v>4.12</v>
@@ -11865,7 +11880,7 @@
         <v>390.01</v>
       </c>
       <c r="AC88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD88" t="s">
         <v>41</v>
@@ -11882,13 +11897,13 @@
     </row>
     <row r="89" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B89" s="2">
         <v>7501509908581</v>
       </c>
       <c r="C89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -11897,16 +11912,16 @@
         <v>98</v>
       </c>
       <c r="F89" t="s">
+        <v>241</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J89">
         <v>4.13</v>
@@ -11966,7 +11981,7 @@
         <v>247.81</v>
       </c>
       <c r="AC89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD89" t="s">
         <v>41</v>
@@ -11983,13 +11998,13 @@
     </row>
     <row r="90" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B90" s="2">
         <v>7501509908604</v>
       </c>
       <c r="C90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
@@ -11998,16 +12013,16 @@
         <v>98</v>
       </c>
       <c r="F90" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J90">
         <v>23.71</v>
@@ -12067,7 +12082,7 @@
         <v>168.97</v>
       </c>
       <c r="AC90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD90" t="s">
         <v>41</v>
@@ -12084,13 +12099,13 @@
     </row>
     <row r="91" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B91" s="2">
         <v>7506218111611</v>
       </c>
       <c r="C91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D91" t="s">
         <v>97</v>
@@ -12099,16 +12114,16 @@
         <v>98</v>
       </c>
       <c r="F91" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J91">
         <v>3.06</v>
@@ -12168,7 +12183,7 @@
         <v>186.43</v>
       </c>
       <c r="AC91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD91" t="s">
         <v>41</v>
@@ -12185,13 +12200,13 @@
     </row>
     <row r="92" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B92" s="2">
         <v>7501509909809</v>
       </c>
       <c r="C92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -12200,16 +12215,16 @@
         <v>98</v>
       </c>
       <c r="F92" t="s">
+        <v>233</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J92">
         <v>3.37</v>
@@ -12269,7 +12284,7 @@
         <v>231.05</v>
       </c>
       <c r="AC92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD92" t="s">
         <v>41</v>
@@ -12286,13 +12301,13 @@
     </row>
     <row r="93" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2">
         <v>7501509909816</v>
       </c>
       <c r="C93" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -12301,16 +12316,16 @@
         <v>98</v>
       </c>
       <c r="F93" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="I93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J93">
         <v>4.12</v>
@@ -12370,7 +12385,7 @@
         <v>451.74</v>
       </c>
       <c r="AC93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD93" t="s">
         <v>41</v>
@@ -12387,13 +12402,13 @@
     </row>
     <row r="94" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B94" s="2">
         <v>7501509909823</v>
       </c>
       <c r="C94" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -12402,16 +12417,16 @@
         <v>98</v>
       </c>
       <c r="F94" t="s">
+        <v>241</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J94">
         <v>4.13</v>
@@ -12471,7 +12486,7 @@
         <v>201.78</v>
       </c>
       <c r="AC94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD94" t="s">
         <v>41</v>
@@ -12488,13 +12503,13 @@
     </row>
     <row r="95" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B95" s="2">
         <v>7501509908246</v>
       </c>
       <c r="C95" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D95" t="s">
         <v>97</v>
@@ -12503,16 +12518,16 @@
         <v>98</v>
       </c>
       <c r="F95" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I95" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J95">
         <v>23.71</v>
@@ -12572,7 +12587,7 @@
         <v>192.25</v>
       </c>
       <c r="AC95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD95" t="s">
         <v>41</v>
@@ -12589,13 +12604,13 @@
     </row>
     <row r="96" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B96" s="2">
         <v>7501509909267</v>
       </c>
       <c r="C96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -12604,16 +12619,16 @@
         <v>98</v>
       </c>
       <c r="F96" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J96">
         <v>3.37</v>
@@ -12673,7 +12688,7 @@
         <v>238.77</v>
       </c>
       <c r="AC96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD96" t="s">
         <v>41</v>
@@ -12690,13 +12705,13 @@
     </row>
     <row r="97" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B97" s="2">
         <v>7501509909274</v>
       </c>
       <c r="C97" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
@@ -12705,16 +12720,16 @@
         <v>98</v>
       </c>
       <c r="F97" t="s">
+        <v>237</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J97">
         <v>4.12</v>
@@ -12774,7 +12789,7 @@
         <v>438.46</v>
       </c>
       <c r="AC97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD97" t="s">
         <v>41</v>
@@ -12791,13 +12806,13 @@
     </row>
     <row r="98" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="2">
         <v>7501509909281</v>
       </c>
       <c r="C98" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
@@ -12806,16 +12821,16 @@
         <v>98</v>
       </c>
       <c r="F98" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J98">
         <v>4.13</v>
@@ -12875,7 +12890,7 @@
         <v>202.3</v>
       </c>
       <c r="AC98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD98" t="s">
         <v>41</v>
@@ -12892,13 +12907,13 @@
     </row>
     <row r="99" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="2">
         <v>7501509909786</v>
       </c>
       <c r="C99" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
@@ -12907,16 +12922,16 @@
         <v>98</v>
       </c>
       <c r="F99" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="I99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J99">
         <v>23.71</v>
@@ -12976,7 +12991,7 @@
         <v>192.25</v>
       </c>
       <c r="AC99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD99" t="s">
         <v>41</v>
@@ -12993,28 +13008,28 @@
     </row>
     <row r="100" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B100" s="2">
         <v>7501509900134</v>
       </c>
       <c r="C100" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D100" t="s">
         <v>97</v>
       </c>
       <c r="E100" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" t="s">
         <v>271</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="I100" t="s">
         <v>94</v>
@@ -13077,10 +13092,10 @@
         <v>401.25</v>
       </c>
       <c r="AC100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE100">
         <v>100</v>
@@ -13094,31 +13109,31 @@
     </row>
     <row r="101" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" s="2">
         <v>7501509906174</v>
       </c>
       <c r="C101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D101" t="s">
         <v>97</v>
       </c>
       <c r="E101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" t="s">
         <v>271</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J101">
         <v>3.87</v>
@@ -13178,10 +13193,10 @@
         <v>143.75</v>
       </c>
       <c r="AC101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE101">
         <v>100</v>
@@ -13195,31 +13210,31 @@
     </row>
     <row r="102" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" s="2">
         <v>7501509906150</v>
       </c>
       <c r="C102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D102" t="s">
         <v>97</v>
       </c>
       <c r="E102" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" t="s">
         <v>271</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J102">
         <v>10.76</v>
@@ -13279,7 +13294,7 @@
         <v>632.29</v>
       </c>
       <c r="AC102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD102" t="s">
         <v>41</v>
@@ -13296,31 +13311,31 @@
     </row>
     <row r="103" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B103" s="2">
         <v>7501509907140</v>
       </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D103" t="s">
         <v>97</v>
       </c>
       <c r="E103" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" t="s">
         <v>271</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J103">
         <v>7.08</v>
@@ -13380,10 +13395,10 @@
         <v>466.51</v>
       </c>
       <c r="AC103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE103">
         <v>100</v>
@@ -13397,31 +13412,31 @@
     </row>
     <row r="104" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B104" s="2">
         <v>7506218110485</v>
       </c>
       <c r="C104" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D104" t="s">
         <v>97</v>
       </c>
       <c r="E104" t="s">
+        <v>270</v>
+      </c>
+      <c r="F104" t="s">
         <v>271</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="I104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J104">
         <v>6.82</v>
@@ -13481,7 +13496,7 @@
         <v>270.74</v>
       </c>
       <c r="AC104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD104" t="s">
         <v>41</v>
@@ -13498,31 +13513,31 @@
     </row>
     <row r="105" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B105" s="2">
         <v>7506218110706</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D105" t="s">
         <v>97</v>
       </c>
       <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" t="s">
         <v>271</v>
       </c>
-      <c r="F105" t="s">
-        <v>272</v>
-      </c>
       <c r="G105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="I105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J105">
         <v>0.77</v>
@@ -13582,7 +13597,7 @@
         <v>25.03</v>
       </c>
       <c r="AC105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD105" t="s">
         <v>80</v>
@@ -13599,31 +13614,31 @@
     </row>
     <row r="106" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B106" s="2">
         <v>7506218110683</v>
       </c>
       <c r="C106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D106" t="s">
         <v>97</v>
       </c>
       <c r="E106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" t="s">
         <v>271</v>
       </c>
-      <c r="F106" t="s">
-        <v>272</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J106">
         <v>0.77</v>
@@ -13683,7 +13698,7 @@
         <v>25.39</v>
       </c>
       <c r="AC106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD106" t="s">
         <v>80</v>
@@ -13700,31 +13715,31 @@
     </row>
     <row r="107" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B107" s="2">
         <v>7506218110416</v>
       </c>
       <c r="C107" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
         <v>97</v>
       </c>
       <c r="E107" t="s">
+        <v>270</v>
+      </c>
+      <c r="F107" t="s">
         <v>271</v>
       </c>
-      <c r="F107" t="s">
-        <v>272</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J107">
         <v>0.77</v>
@@ -13784,7 +13799,7 @@
         <v>24.41</v>
       </c>
       <c r="AC107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD107" t="s">
         <v>80</v>
@@ -13801,31 +13816,31 @@
     </row>
     <row r="108" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B108" s="2">
         <v>7506218110409</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D108" t="s">
         <v>97</v>
       </c>
       <c r="E108" t="s">
+        <v>270</v>
+      </c>
+      <c r="F108" t="s">
         <v>271</v>
       </c>
-      <c r="F108" t="s">
-        <v>272</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I108" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J108">
         <v>0.77</v>
@@ -13885,7 +13900,7 @@
         <v>25.14</v>
       </c>
       <c r="AC108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD108" t="s">
         <v>80</v>
@@ -13902,31 +13917,31 @@
     </row>
     <row r="109" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B109" s="2">
         <v>7506218110430</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D109" t="s">
         <v>97</v>
       </c>
       <c r="E109" t="s">
+        <v>270</v>
+      </c>
+      <c r="F109" t="s">
         <v>271</v>
       </c>
-      <c r="F109" t="s">
-        <v>272</v>
-      </c>
       <c r="G109" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J109">
         <v>0.81</v>
@@ -13986,7 +14001,7 @@
         <v>23.25</v>
       </c>
       <c r="AC109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD109" t="s">
         <v>80</v>
@@ -14003,31 +14018,31 @@
     </row>
     <row r="110" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2">
         <v>7506218110423</v>
       </c>
       <c r="C110" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D110" t="s">
         <v>97</v>
       </c>
       <c r="E110" t="s">
+        <v>270</v>
+      </c>
+      <c r="F110" t="s">
         <v>271</v>
       </c>
-      <c r="F110" t="s">
-        <v>272</v>
-      </c>
       <c r="G110" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J110">
         <v>0.81</v>
@@ -14087,7 +14102,7 @@
         <v>23.32</v>
       </c>
       <c r="AC110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD110" t="s">
         <v>80</v>
@@ -14104,31 +14119,31 @@
     </row>
     <row r="111" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B111" s="2">
         <v>7506218111512</v>
       </c>
       <c r="C111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D111" t="s">
         <v>97</v>
       </c>
       <c r="E111" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" t="s">
         <v>271</v>
       </c>
-      <c r="F111" t="s">
-        <v>272</v>
-      </c>
       <c r="G111" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J111">
         <v>2.92</v>
@@ -14188,7 +14203,7 @@
         <v>30.87</v>
       </c>
       <c r="AC111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD111" t="s">
         <v>80</v>
@@ -14205,31 +14220,31 @@
     </row>
     <row r="112" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B112" s="2">
         <v>7501509900950</v>
       </c>
       <c r="C112" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D112" t="s">
         <v>97</v>
       </c>
       <c r="E112" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" t="s">
         <v>271</v>
       </c>
-      <c r="F112" t="s">
-        <v>272</v>
-      </c>
       <c r="G112" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="I112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J112">
         <v>9.7100000000000009</v>
@@ -14289,10 +14304,10 @@
         <v>501.69</v>
       </c>
       <c r="AC112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE112">
         <v>100</v>
@@ -14306,31 +14321,31 @@
     </row>
     <row r="113" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B113" s="2">
         <v>7501509900158</v>
       </c>
       <c r="C113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D113" t="s">
         <v>97</v>
       </c>
       <c r="E113" t="s">
+        <v>270</v>
+      </c>
+      <c r="F113" t="s">
         <v>271</v>
       </c>
-      <c r="F113" t="s">
-        <v>272</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J113">
         <v>11.83</v>
@@ -14390,7 +14405,7 @@
         <v>533.53</v>
       </c>
       <c r="AC113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD113" t="s">
         <v>41</v>
@@ -14407,31 +14422,31 @@
     </row>
     <row r="114" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B114" s="2">
         <v>7501509900196</v>
       </c>
       <c r="C114" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D114" t="s">
         <v>97</v>
       </c>
       <c r="E114" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" t="s">
         <v>271</v>
       </c>
-      <c r="F114" t="s">
-        <v>272</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J114">
         <v>11.93</v>
@@ -14491,7 +14506,7 @@
         <v>502.22</v>
       </c>
       <c r="AC114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD114" t="s">
         <v>41</v>
@@ -14508,31 +14523,31 @@
     </row>
     <row r="115" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B115" s="2">
         <v>7501509904606</v>
       </c>
       <c r="C115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D115" t="s">
         <v>97</v>
       </c>
       <c r="E115" t="s">
+        <v>270</v>
+      </c>
+      <c r="F115" t="s">
         <v>271</v>
       </c>
-      <c r="F115" t="s">
-        <v>272</v>
-      </c>
       <c r="G115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="I115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J115">
         <v>11.88</v>
@@ -14592,10 +14607,10 @@
         <v>470.03</v>
       </c>
       <c r="AC115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE115">
         <v>100</v>
@@ -14609,31 +14624,31 @@
     </row>
     <row r="116" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B116" s="2">
         <v>7501509905740</v>
       </c>
       <c r="C116" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D116" t="s">
         <v>97</v>
       </c>
       <c r="E116" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" t="s">
         <v>271</v>
       </c>
-      <c r="F116" t="s">
-        <v>272</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J116">
         <v>17.75</v>
@@ -14693,7 +14708,7 @@
         <v>526.91</v>
       </c>
       <c r="AC116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD116" t="s">
         <v>41</v>
@@ -14710,31 +14725,31 @@
     </row>
     <row r="117" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B117" s="2">
         <v>7506218111673</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s">
         <v>97</v>
       </c>
       <c r="E117" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117" t="s">
         <v>271</v>
       </c>
-      <c r="F117" t="s">
-        <v>272</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J117">
         <v>12.68</v>
@@ -14794,10 +14809,10 @@
         <v>537.94000000000005</v>
       </c>
       <c r="AC117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE117">
         <v>100</v>
@@ -14811,31 +14826,31 @@
     </row>
     <row r="118" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B118" s="2">
         <v>7501509900141</v>
       </c>
       <c r="C118" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D118" t="s">
         <v>97</v>
       </c>
       <c r="E118" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" t="s">
         <v>271</v>
       </c>
-      <c r="F118" t="s">
-        <v>272</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J118">
         <v>12.52</v>
@@ -14895,10 +14910,10 @@
         <v>418</v>
       </c>
       <c r="AC118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE118">
         <v>100</v>
@@ -14912,31 +14927,31 @@
     </row>
     <row r="119" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B119" s="2">
         <v>7501509900165</v>
       </c>
       <c r="C119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
       </c>
       <c r="E119" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" t="s">
         <v>271</v>
       </c>
-      <c r="F119" t="s">
-        <v>272</v>
-      </c>
       <c r="G119" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J119">
         <v>12.34</v>
@@ -14996,10 +15011,10 @@
         <v>388.9</v>
       </c>
       <c r="AC119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE119">
         <v>100</v>
@@ -15013,31 +15028,31 @@
     </row>
     <row r="120" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B120" s="2">
         <v>7501509900974</v>
       </c>
       <c r="C120" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D120" t="s">
         <v>97</v>
       </c>
       <c r="E120" t="s">
+        <v>270</v>
+      </c>
+      <c r="F120" t="s">
         <v>271</v>
       </c>
-      <c r="F120" t="s">
-        <v>272</v>
-      </c>
       <c r="G120" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="I120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J120">
         <v>7.8</v>
@@ -15097,7 +15112,7 @@
         <v>25.82</v>
       </c>
       <c r="AC120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD120" t="s">
         <v>80</v>
@@ -15114,31 +15129,31 @@
     </row>
     <row r="121" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B121" s="2">
         <v>7501509900967</v>
       </c>
       <c r="C121" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D121" t="s">
         <v>97</v>
       </c>
       <c r="E121" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" t="s">
         <v>271</v>
       </c>
-      <c r="F121" t="s">
-        <v>272</v>
-      </c>
       <c r="G121" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J121">
         <v>8.83</v>
@@ -15198,7 +15213,7 @@
         <v>25.74</v>
       </c>
       <c r="AC121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD121" t="s">
         <v>80</v>
@@ -15215,31 +15230,31 @@
     </row>
     <row r="122" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122" s="2">
         <v>7501509900981</v>
       </c>
       <c r="C122" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D122" t="s">
         <v>97</v>
       </c>
       <c r="E122" t="s">
+        <v>270</v>
+      </c>
+      <c r="F122" t="s">
         <v>271</v>
       </c>
-      <c r="F122" t="s">
-        <v>272</v>
-      </c>
       <c r="G122" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J122">
         <v>13.99</v>
@@ -15299,7 +15314,7 @@
         <v>24.87</v>
       </c>
       <c r="AC122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD122" t="s">
         <v>80</v>
@@ -15316,31 +15331,31 @@
     </row>
     <row r="123" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123" s="2">
         <v>7501509905245</v>
       </c>
       <c r="C123" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D123" t="s">
         <v>97</v>
       </c>
       <c r="E123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" t="s">
         <v>271</v>
       </c>
-      <c r="F123" t="s">
-        <v>272</v>
-      </c>
       <c r="G123" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I123" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J123">
         <v>12.28</v>
@@ -15400,7 +15415,7 @@
         <v>26.98</v>
       </c>
       <c r="AC123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD123" t="s">
         <v>80</v>
@@ -15417,31 +15432,31 @@
     </row>
     <row r="124" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B124" s="2">
         <v>7501509905221</v>
       </c>
       <c r="C124" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D124" t="s">
         <v>97</v>
       </c>
       <c r="E124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" t="s">
         <v>271</v>
       </c>
-      <c r="F124" t="s">
-        <v>272</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I124" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J124">
         <v>9.5399999999999991</v>
@@ -15501,7 +15516,7 @@
         <v>17.52</v>
       </c>
       <c r="AC124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD124" t="s">
         <v>80</v>
@@ -15518,31 +15533,31 @@
     </row>
     <row r="125" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B125" s="2">
         <v>7501509900998</v>
       </c>
       <c r="C125" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D125" t="s">
         <v>97</v>
       </c>
       <c r="E125" t="s">
+        <v>270</v>
+      </c>
+      <c r="F125" t="s">
         <v>271</v>
       </c>
-      <c r="F125" t="s">
-        <v>272</v>
-      </c>
       <c r="G125" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I125" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J125">
         <v>8.08</v>
@@ -15602,7 +15617,7 @@
         <v>21.95</v>
       </c>
       <c r="AC125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD125" t="s">
         <v>80</v>
@@ -15619,31 +15634,31 @@
     </row>
     <row r="126" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B126" s="2">
         <v>7501509901001</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D126" t="s">
         <v>97</v>
       </c>
       <c r="E126" t="s">
+        <v>270</v>
+      </c>
+      <c r="F126" t="s">
         <v>271</v>
       </c>
-      <c r="F126" t="s">
-        <v>272</v>
-      </c>
       <c r="G126" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J126">
         <v>14.4</v>
@@ -15703,10 +15718,10 @@
         <v>673.74</v>
       </c>
       <c r="AC126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD126" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE126">
         <v>100</v>
@@ -15720,31 +15735,31 @@
     </row>
     <row r="127" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B127" s="2">
         <v>7501509900172</v>
       </c>
       <c r="C127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D127" t="s">
         <v>97</v>
       </c>
       <c r="E127" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" t="s">
         <v>271</v>
       </c>
-      <c r="F127" t="s">
-        <v>272</v>
-      </c>
       <c r="G127" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J127">
         <v>14.4</v>
@@ -15804,7 +15819,7 @@
         <v>667.57</v>
       </c>
       <c r="AC127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD127" t="s">
         <v>41</v>
@@ -15821,31 +15836,31 @@
     </row>
     <row r="128" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B128" s="2">
         <v>7501509900202</v>
       </c>
       <c r="C128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D128" t="s">
         <v>97</v>
       </c>
       <c r="E128" t="s">
+        <v>270</v>
+      </c>
+      <c r="F128" t="s">
         <v>271</v>
       </c>
-      <c r="F128" t="s">
-        <v>272</v>
-      </c>
       <c r="G128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I128" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J128">
         <v>17.75</v>
@@ -15905,7 +15920,7 @@
         <v>722.24</v>
       </c>
       <c r="AC128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD128" t="s">
         <v>41</v>
@@ -15922,31 +15937,31 @@
     </row>
     <row r="129" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B129" s="2">
         <v>7501509900189</v>
       </c>
       <c r="C129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D129" t="s">
         <v>97</v>
       </c>
       <c r="E129" t="s">
+        <v>270</v>
+      </c>
+      <c r="F129" t="s">
         <v>271</v>
       </c>
-      <c r="F129" t="s">
-        <v>272</v>
-      </c>
       <c r="G129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J129">
         <v>15.68</v>
@@ -16006,10 +16021,10 @@
         <v>530</v>
       </c>
       <c r="AC129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE129">
         <v>100</v>
@@ -16023,31 +16038,31 @@
     </row>
     <row r="130" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B130" s="2">
         <v>7501509901025</v>
       </c>
       <c r="C130" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D130" t="s">
         <v>97</v>
       </c>
       <c r="E130" t="s">
+        <v>270</v>
+      </c>
+      <c r="F130" t="s">
         <v>271</v>
       </c>
-      <c r="F130" t="s">
-        <v>272</v>
-      </c>
       <c r="G130" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J130">
         <v>9.34</v>
@@ -16107,7 +16122,7 @@
         <v>28.53</v>
       </c>
       <c r="AC130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD130" t="s">
         <v>80</v>
@@ -16124,31 +16139,31 @@
     </row>
     <row r="131" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B131" s="2">
         <v>7501509901018</v>
       </c>
       <c r="C131" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D131" t="s">
         <v>97</v>
       </c>
       <c r="E131" t="s">
+        <v>270</v>
+      </c>
+      <c r="F131" t="s">
         <v>271</v>
       </c>
-      <c r="F131" t="s">
-        <v>272</v>
-      </c>
       <c r="G131" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J131">
         <v>8.83</v>
@@ -16208,7 +16223,7 @@
         <v>28.51</v>
       </c>
       <c r="AC131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD131" t="s">
         <v>80</v>
@@ -16225,31 +16240,31 @@
     </row>
     <row r="132" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B132" s="2">
         <v>7501509901032</v>
       </c>
       <c r="C132" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D132" t="s">
         <v>97</v>
       </c>
       <c r="E132" t="s">
+        <v>270</v>
+      </c>
+      <c r="F132" t="s">
         <v>271</v>
       </c>
-      <c r="F132" t="s">
-        <v>272</v>
-      </c>
       <c r="G132" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I132" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J132">
         <v>13.99</v>
@@ -16309,7 +16324,7 @@
         <v>28.42</v>
       </c>
       <c r="AC132" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD132" t="s">
         <v>80</v>
@@ -16326,31 +16341,31 @@
     </row>
     <row r="133" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B133" s="2">
         <v>7501509907362</v>
       </c>
       <c r="C133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D133" t="s">
         <v>97</v>
       </c>
       <c r="E133" t="s">
+        <v>270</v>
+      </c>
+      <c r="F133" t="s">
         <v>271</v>
       </c>
-      <c r="F133" t="s">
-        <v>272</v>
-      </c>
       <c r="G133" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I133" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J133">
         <v>1.51</v>
@@ -16410,7 +16425,7 @@
         <v>30.71</v>
       </c>
       <c r="AC133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD133" t="s">
         <v>80</v>
@@ -16427,31 +16442,31 @@
     </row>
     <row r="134" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B134" s="2">
         <v>7501509907379</v>
       </c>
       <c r="C134" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D134" t="s">
         <v>97</v>
       </c>
       <c r="E134" t="s">
+        <v>270</v>
+      </c>
+      <c r="F134" t="s">
         <v>271</v>
       </c>
-      <c r="F134" t="s">
-        <v>272</v>
-      </c>
       <c r="G134" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J134">
         <v>1.7</v>
@@ -16511,7 +16526,7 @@
         <v>25.16</v>
       </c>
       <c r="AC134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD134" t="s">
         <v>80</v>
@@ -16528,31 +16543,31 @@
     </row>
     <row r="135" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B135" s="2">
         <v>7501509901049</v>
       </c>
       <c r="C135" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D135" t="s">
         <v>97</v>
       </c>
       <c r="E135" t="s">
+        <v>270</v>
+      </c>
+      <c r="F135" t="s">
         <v>271</v>
       </c>
-      <c r="F135" t="s">
-        <v>272</v>
-      </c>
       <c r="G135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J135">
         <v>1.69</v>
@@ -16612,7 +16627,7 @@
         <v>22.17</v>
       </c>
       <c r="AC135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD135" t="s">
         <v>80</v>
@@ -16629,31 +16644,31 @@
     </row>
     <row r="136" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B136" s="2">
         <v>7501509901056</v>
       </c>
       <c r="C136" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D136" t="s">
         <v>97</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
       </c>
-      <c r="F136" t="s">
-        <v>272</v>
-      </c>
       <c r="G136" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J136">
         <v>22.87</v>
@@ -16713,10 +16728,10 @@
         <v>1237.24</v>
       </c>
       <c r="AC136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE136">
         <v>100</v>
@@ -16730,31 +16745,31 @@
     </row>
     <row r="137" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B137" s="2">
         <v>7501509900110</v>
       </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D137" t="s">
         <v>97</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
       </c>
-      <c r="F137" t="s">
-        <v>272</v>
-      </c>
       <c r="G137" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J137">
         <v>22.87</v>
@@ -16814,7 +16829,7 @@
         <v>1310.6600000000001</v>
       </c>
       <c r="AC137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD137" t="s">
         <v>41</v>
@@ -16831,31 +16846,31 @@
     </row>
     <row r="138" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B138" s="2">
         <v>7501509900219</v>
       </c>
       <c r="C138" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D138" t="s">
         <v>97</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
       </c>
-      <c r="F138" t="s">
-        <v>272</v>
-      </c>
       <c r="G138" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I138" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J138">
         <v>22.87</v>
@@ -16915,7 +16930,7 @@
         <v>1266.1199999999999</v>
       </c>
       <c r="AC138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD138" t="s">
         <v>41</v>
@@ -16932,31 +16947,31 @@
     </row>
     <row r="139" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B139" s="2">
         <v>7506218111666</v>
       </c>
       <c r="C139" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D139" t="s">
         <v>97</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
       </c>
-      <c r="F139" t="s">
-        <v>272</v>
-      </c>
       <c r="G139" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J139">
         <v>22.87</v>
@@ -17016,10 +17031,10 @@
         <v>1119.96</v>
       </c>
       <c r="AC139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE139">
         <v>100</v>
@@ -17033,31 +17048,31 @@
     </row>
     <row r="140" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B140" s="2">
         <v>7501509900233</v>
       </c>
       <c r="C140" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D140" t="s">
         <v>97</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
       </c>
-      <c r="F140" t="s">
-        <v>272</v>
-      </c>
       <c r="G140" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J140">
         <v>26.9</v>
@@ -17117,10 +17132,10 @@
         <v>839.53</v>
       </c>
       <c r="AC140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE140">
         <v>100</v>
@@ -17134,31 +17149,31 @@
     </row>
     <row r="141" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B141" s="2">
         <v>7501509900240</v>
       </c>
       <c r="C141" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D141" t="s">
         <v>97</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
       </c>
-      <c r="F141" t="s">
-        <v>272</v>
-      </c>
       <c r="G141" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J141">
         <v>26.9</v>
@@ -17218,10 +17233,10 @@
         <v>844.82</v>
       </c>
       <c r="AC141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE141">
         <v>100</v>
@@ -17235,31 +17250,31 @@
     </row>
     <row r="142" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B142" s="2">
         <v>7501509901070</v>
       </c>
       <c r="C142" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D142" t="s">
         <v>97</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
       </c>
-      <c r="F142" t="s">
-        <v>272</v>
-      </c>
       <c r="G142" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J142">
         <v>1.76</v>
@@ -17319,7 +17334,7 @@
         <v>27.55</v>
       </c>
       <c r="AC142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD142" t="s">
         <v>80</v>
@@ -17336,31 +17351,31 @@
     </row>
     <row r="143" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B143" s="2">
         <v>7501509901063</v>
       </c>
       <c r="C143" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D143" t="s">
         <v>97</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
       </c>
-      <c r="F143" t="s">
-        <v>272</v>
-      </c>
       <c r="G143" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J143">
         <v>1.72</v>
@@ -17420,7 +17435,7 @@
         <v>26.6</v>
       </c>
       <c r="AC143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD143" t="s">
         <v>80</v>
@@ -17437,31 +17452,31 @@
     </row>
     <row r="144" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B144" s="2">
         <v>7501509901087</v>
       </c>
       <c r="C144" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D144" t="s">
         <v>97</v>
       </c>
       <c r="E144" t="s">
+        <v>270</v>
+      </c>
+      <c r="F144" t="s">
         <v>271</v>
       </c>
-      <c r="F144" t="s">
-        <v>272</v>
-      </c>
       <c r="G144" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J144">
         <v>1.72</v>
@@ -17521,7 +17536,7 @@
         <v>26.34</v>
       </c>
       <c r="AC144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD144" t="s">
         <v>80</v>
@@ -17538,31 +17553,31 @@
     </row>
     <row r="145" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B145" s="2">
         <v>7501509907386</v>
       </c>
       <c r="C145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D145" t="s">
         <v>97</v>
       </c>
       <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>271</v>
       </c>
-      <c r="F145" t="s">
-        <v>272</v>
-      </c>
       <c r="G145" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I145" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J145">
         <v>1.72</v>
@@ -17622,7 +17637,7 @@
         <v>27.56</v>
       </c>
       <c r="AC145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD145" t="s">
         <v>80</v>
@@ -17639,31 +17654,31 @@
     </row>
     <row r="146" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B146" s="2">
         <v>7501509907393</v>
       </c>
       <c r="C146" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D146" t="s">
         <v>97</v>
       </c>
       <c r="E146" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" t="s">
         <v>271</v>
       </c>
-      <c r="F146" t="s">
-        <v>272</v>
-      </c>
       <c r="G146" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H146" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="I146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J146">
         <v>1.73</v>
@@ -17723,7 +17738,7 @@
         <v>24.23</v>
       </c>
       <c r="AC146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD146" t="s">
         <v>80</v>
@@ -17740,28 +17755,28 @@
     </row>
     <row r="147" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B147" s="2">
         <v>7501509901094</v>
       </c>
       <c r="C147" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D147" t="s">
         <v>97</v>
       </c>
       <c r="E147" t="s">
+        <v>270</v>
+      </c>
+      <c r="F147" t="s">
         <v>271</v>
       </c>
-      <c r="F147" t="s">
-        <v>272</v>
-      </c>
       <c r="G147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="I147" t="s">
         <v>94</v>
@@ -17824,7 +17839,7 @@
         <v>22.05</v>
       </c>
       <c r="AC147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD147" t="s">
         <v>80</v>
@@ -17841,28 +17856,28 @@
     </row>
     <row r="148" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B148" s="2">
         <v>7506218112458</v>
       </c>
       <c r="C148" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D148" t="s">
         <v>97</v>
       </c>
       <c r="E148" t="s">
+        <v>270</v>
+      </c>
+      <c r="F148" t="s">
         <v>271</v>
       </c>
-      <c r="F148" t="s">
-        <v>272</v>
-      </c>
       <c r="G148" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I148" t="s">
         <v>94</v>
@@ -17925,7 +17940,7 @@
         <v>43.22</v>
       </c>
       <c r="AC148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD148" t="s">
         <v>80</v>
@@ -17942,28 +17957,28 @@
     </row>
     <row r="149" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B149" s="2">
         <v>7506218112229</v>
       </c>
       <c r="C149" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D149" t="s">
         <v>97</v>
       </c>
       <c r="E149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" t="s">
         <v>271</v>
       </c>
-      <c r="F149" t="s">
-        <v>272</v>
-      </c>
       <c r="G149" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="I149" t="s">
         <v>94</v>
@@ -18026,7 +18041,7 @@
         <v>474.88</v>
       </c>
       <c r="AC149" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD149" t="s">
         <v>80</v>
@@ -18043,28 +18058,28 @@
     </row>
     <row r="150" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B150" s="2">
         <v>7506218112250</v>
       </c>
       <c r="C150" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D150" t="s">
         <v>97</v>
       </c>
       <c r="E150" t="s">
+        <v>270</v>
+      </c>
+      <c r="F150" t="s">
         <v>271</v>
       </c>
-      <c r="F150" t="s">
-        <v>272</v>
-      </c>
       <c r="G150" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="I150" t="s">
         <v>94</v>
@@ -18127,10 +18142,10 @@
         <v>1308.01</v>
       </c>
       <c r="AC150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE150">
         <v>100</v>
@@ -18144,28 +18159,28 @@
     </row>
     <row r="151" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B151" s="2">
         <v>7501509906693</v>
       </c>
       <c r="C151" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D151" t="s">
         <v>97</v>
       </c>
       <c r="E151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" t="s">
         <v>271</v>
       </c>
-      <c r="F151" t="s">
-        <v>272</v>
-      </c>
       <c r="G151" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="I151" t="s">
         <v>94</v>
@@ -18228,10 +18243,10 @@
         <v>570.55999999999995</v>
       </c>
       <c r="AC151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE151">
         <v>100</v>
@@ -18245,28 +18260,28 @@
     </row>
     <row r="152" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B152" s="2">
         <v>7501509901780</v>
       </c>
       <c r="C152" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D152" t="s">
         <v>97</v>
       </c>
       <c r="E152" t="s">
+        <v>270</v>
+      </c>
+      <c r="F152" t="s">
         <v>271</v>
       </c>
-      <c r="F152" t="s">
-        <v>272</v>
-      </c>
       <c r="G152" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="I152" t="s">
         <v>94</v>
@@ -18329,10 +18344,10 @@
         <v>638.69000000000005</v>
       </c>
       <c r="AC152" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE152">
         <v>100</v>
@@ -18346,28 +18361,28 @@
     </row>
     <row r="153" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B153" s="2">
         <v>7506218110096</v>
       </c>
       <c r="C153" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D153" t="s">
         <v>97</v>
       </c>
       <c r="E153" t="s">
+        <v>270</v>
+      </c>
+      <c r="F153" t="s">
         <v>271</v>
       </c>
-      <c r="F153" t="s">
-        <v>272</v>
-      </c>
       <c r="G153" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I153" t="s">
         <v>94</v>
@@ -18447,28 +18462,28 @@
     </row>
     <row r="154" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B154" s="2">
         <v>7506218110072</v>
       </c>
       <c r="C154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D154" t="s">
         <v>97</v>
       </c>
       <c r="E154" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" t="s">
         <v>271</v>
       </c>
-      <c r="F154" t="s">
-        <v>272</v>
-      </c>
       <c r="G154" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I154" t="s">
         <v>94</v>
@@ -18548,28 +18563,28 @@
     </row>
     <row r="155" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B155" s="2">
         <v>7501509901834</v>
       </c>
       <c r="C155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D155" t="s">
         <v>97</v>
       </c>
       <c r="E155" t="s">
+        <v>270</v>
+      </c>
+      <c r="F155" t="s">
         <v>271</v>
       </c>
-      <c r="F155" t="s">
-        <v>272</v>
-      </c>
       <c r="G155" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I155" t="s">
         <v>94</v>
@@ -18632,10 +18647,10 @@
         <v>763.69</v>
       </c>
       <c r="AC155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE155">
         <v>100</v>
@@ -18649,28 +18664,28 @@
     </row>
     <row r="156" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B156" s="2">
         <v>7506218110102</v>
       </c>
       <c r="C156" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D156" t="s">
         <v>97</v>
       </c>
       <c r="E156" t="s">
+        <v>270</v>
+      </c>
+      <c r="F156" t="s">
         <v>271</v>
       </c>
-      <c r="F156" t="s">
-        <v>272</v>
-      </c>
       <c r="G156" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I156" t="s">
         <v>94</v>
@@ -18750,28 +18765,28 @@
     </row>
     <row r="157" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B157" s="2">
         <v>7506218110089</v>
       </c>
       <c r="C157" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D157" t="s">
         <v>97</v>
       </c>
       <c r="E157" t="s">
+        <v>270</v>
+      </c>
+      <c r="F157" t="s">
         <v>271</v>
       </c>
-      <c r="F157" t="s">
-        <v>272</v>
-      </c>
       <c r="G157" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I157" t="s">
         <v>94</v>
@@ -18851,31 +18866,31 @@
     </row>
     <row r="158" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B158" s="2">
         <v>7501509903234</v>
       </c>
       <c r="C158" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D158" t="s">
         <v>97</v>
       </c>
       <c r="E158" t="s">
+        <v>270</v>
+      </c>
+      <c r="F158" t="s">
         <v>271</v>
       </c>
-      <c r="F158" t="s">
-        <v>272</v>
-      </c>
       <c r="G158" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="I158" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J158">
         <v>26.43</v>
@@ -18952,31 +18967,31 @@
     </row>
     <row r="159" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B159" s="2">
         <v>7501509903258</v>
       </c>
       <c r="C159" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D159" t="s">
         <v>97</v>
       </c>
       <c r="E159" t="s">
+        <v>270</v>
+      </c>
+      <c r="F159" t="s">
         <v>271</v>
       </c>
-      <c r="F159" t="s">
-        <v>272</v>
-      </c>
       <c r="G159" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="I159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J159">
         <v>26.43</v>
@@ -19053,31 +19068,31 @@
     </row>
     <row r="160" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B160" s="2">
         <v>7501509903241</v>
       </c>
       <c r="C160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D160" t="s">
         <v>97</v>
       </c>
       <c r="E160" t="s">
+        <v>270</v>
+      </c>
+      <c r="F160" t="s">
         <v>271</v>
       </c>
-      <c r="F160" t="s">
-        <v>272</v>
-      </c>
       <c r="G160" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H160" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="I160" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J160">
         <v>26.43</v>
@@ -19154,28 +19169,28 @@
     </row>
     <row r="161" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B161" s="2">
         <v>7506218110201</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D161" t="s">
         <v>97</v>
       </c>
       <c r="E161" t="s">
+        <v>270</v>
+      </c>
+      <c r="F161" t="s">
         <v>271</v>
       </c>
-      <c r="F161" t="s">
-        <v>272</v>
-      </c>
       <c r="G161" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H161" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="I161" t="s">
         <v>94</v>
@@ -19238,10 +19253,10 @@
         <v>657.87</v>
       </c>
       <c r="AC161" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE161">
         <v>100</v>
@@ -19255,28 +19270,28 @@
     </row>
     <row r="162" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B162" s="2">
         <v>7506218110256</v>
       </c>
       <c r="C162" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D162" t="s">
         <v>97</v>
       </c>
       <c r="E162" t="s">
+        <v>270</v>
+      </c>
+      <c r="F162" t="s">
         <v>271</v>
       </c>
-      <c r="F162" t="s">
-        <v>272</v>
-      </c>
       <c r="G162" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="I162" t="s">
         <v>94</v>
@@ -19339,7 +19354,7 @@
         <v>257.51</v>
       </c>
       <c r="AC162" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD162" t="s">
         <v>41</v>
@@ -19356,28 +19371,28 @@
     </row>
     <row r="163" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B163" s="2">
         <v>7506218110126</v>
       </c>
       <c r="C163" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D163" t="s">
         <v>97</v>
       </c>
       <c r="E163" t="s">
+        <v>270</v>
+      </c>
+      <c r="F163" t="s">
         <v>271</v>
       </c>
-      <c r="F163" t="s">
-        <v>272</v>
-      </c>
       <c r="G163" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="I163" t="s">
         <v>94</v>
@@ -19440,7 +19455,7 @@
         <v>157.86000000000001</v>
       </c>
       <c r="AC163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD163" t="s">
         <v>41</v>
@@ -19457,28 +19472,28 @@
     </row>
     <row r="164" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B164" s="2">
         <v>7506218110119</v>
       </c>
       <c r="C164" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D164" t="s">
         <v>97</v>
       </c>
       <c r="E164" t="s">
+        <v>270</v>
+      </c>
+      <c r="F164" t="s">
         <v>271</v>
       </c>
-      <c r="F164" t="s">
-        <v>272</v>
-      </c>
       <c r="G164" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="I164" t="s">
         <v>94</v>
@@ -19541,7 +19556,7 @@
         <v>53.8</v>
       </c>
       <c r="AC164" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD164" t="s">
         <v>41</v>
@@ -19558,28 +19573,28 @@
     </row>
     <row r="165" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B165" s="2">
         <v>7506218110133</v>
       </c>
       <c r="C165" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D165" t="s">
         <v>97</v>
       </c>
       <c r="E165" t="s">
+        <v>270</v>
+      </c>
+      <c r="F165" t="s">
         <v>271</v>
       </c>
-      <c r="F165" t="s">
-        <v>272</v>
-      </c>
       <c r="G165" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="I165" t="s">
         <v>94</v>
@@ -19642,7 +19657,7 @@
         <v>52.92</v>
       </c>
       <c r="AC165" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD165" t="s">
         <v>41</v>
@@ -19659,28 +19674,28 @@
     </row>
     <row r="166" spans="1:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B166" s="2">
         <v>7506218110140</v>
       </c>
       <c r="C166" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D166" t="s">
         <v>97</v>
       </c>
       <c r="E166" t="s">
+        <v>270</v>
+      </c>
+      <c r="F166" t="s">
         <v>271</v>
       </c>
-      <c r="F166" t="s">
-        <v>272</v>
-      </c>
       <c r="G166" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="I166" t="s">
         <v>94</v>
@@ -19743,7 +19758,7 @@
         <v>51.6</v>
       </c>
       <c r="AC166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD166" t="s">
         <v>41</v>
